--- a/COVID SAP.xlsx
+++ b/COVID SAP.xlsx
@@ -490,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U408"/>
+  <dimension ref="A1:U417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="A408" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I417" sqref="I417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,36 +630,36 @@
         <v>1</v>
       </c>
       <c r="N2" s="3">
-        <f>D408</f>
-        <v>74</v>
+        <f>D416</f>
+        <v>46</v>
       </c>
       <c r="O2" s="3">
-        <f>E408</f>
-        <v>11</v>
+        <f>E416</f>
+        <v>8</v>
       </c>
       <c r="P2" s="3">
-        <f>F408</f>
+        <f>F416</f>
         <v>0</v>
       </c>
       <c r="Q2" s="3">
-        <f>K408</f>
-        <v>0</v>
+        <f>K416</f>
+        <v>1</v>
       </c>
       <c r="R2" s="3">
-        <f>J408</f>
-        <v>17</v>
+        <f>J416</f>
+        <v>6</v>
       </c>
       <c r="S2" s="3">
-        <f>I408</f>
-        <v>13</v>
+        <f>I416</f>
+        <v>3</v>
       </c>
       <c r="T2" s="2">
-        <f>A408</f>
-        <v>44375</v>
+        <f>A416</f>
+        <v>44383</v>
       </c>
       <c r="U2" s="3">
-        <f>L408</f>
-        <v>-2</v>
+        <f>L416</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -20155,6 +20155,438 @@
       <c r="M408" s="1">
         <f t="shared" si="358"/>
         <v>11</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A409" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B409" s="1">
+        <v>12889</v>
+      </c>
+      <c r="C409" s="1">
+        <f t="shared" ref="C409" si="359">B409-H409-G409</f>
+        <v>-269</v>
+      </c>
+      <c r="D409" s="1">
+        <f t="shared" ref="D409" si="360">B409-H409</f>
+        <v>50</v>
+      </c>
+      <c r="E409" s="1">
+        <v>7</v>
+      </c>
+      <c r="F409" s="1">
+        <v>0</v>
+      </c>
+      <c r="G409" s="1">
+        <v>319</v>
+      </c>
+      <c r="H409" s="1">
+        <v>12839</v>
+      </c>
+      <c r="I409" s="4">
+        <f t="shared" ref="I409" si="361">B409-B408</f>
+        <v>4</v>
+      </c>
+      <c r="J409" s="4">
+        <f t="shared" ref="J409" si="362">H409-H408</f>
+        <v>28</v>
+      </c>
+      <c r="K409" s="4">
+        <f t="shared" ref="K409" si="363">G409-G408</f>
+        <v>0</v>
+      </c>
+      <c r="L409" s="4">
+        <f t="shared" ref="L409" si="364">E409-E408</f>
+        <v>-4</v>
+      </c>
+      <c r="M409" s="1">
+        <f t="shared" ref="M409" si="365">E409+F409</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A410" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B410" s="1">
+        <v>12897</v>
+      </c>
+      <c r="C410" s="1">
+        <f t="shared" ref="C410:C414" si="366">B410-H410-G410</f>
+        <v>-277</v>
+      </c>
+      <c r="D410" s="1">
+        <f t="shared" ref="D410:D414" si="367">B410-H410</f>
+        <v>43</v>
+      </c>
+      <c r="E410" s="1">
+        <v>6</v>
+      </c>
+      <c r="F410" s="1">
+        <v>0</v>
+      </c>
+      <c r="G410" s="1">
+        <v>320</v>
+      </c>
+      <c r="H410" s="1">
+        <v>12854</v>
+      </c>
+      <c r="I410" s="4">
+        <f t="shared" ref="I410:I414" si="368">B410-B409</f>
+        <v>8</v>
+      </c>
+      <c r="J410" s="4">
+        <f t="shared" ref="J410:J414" si="369">H410-H409</f>
+        <v>15</v>
+      </c>
+      <c r="K410" s="4">
+        <f t="shared" ref="K410:K414" si="370">G410-G409</f>
+        <v>1</v>
+      </c>
+      <c r="L410" s="4">
+        <f t="shared" ref="L410:L414" si="371">E410-E409</f>
+        <v>-1</v>
+      </c>
+      <c r="M410" s="1">
+        <f t="shared" ref="M410:M414" si="372">E410+F410</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A411" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B411" s="1">
+        <v>12900</v>
+      </c>
+      <c r="C411" s="1">
+        <f t="shared" si="366"/>
+        <v>-280</v>
+      </c>
+      <c r="D411" s="1">
+        <f t="shared" si="367"/>
+        <v>40</v>
+      </c>
+      <c r="E411" s="1">
+        <v>7</v>
+      </c>
+      <c r="F411" s="1">
+        <v>0</v>
+      </c>
+      <c r="G411" s="1">
+        <v>320</v>
+      </c>
+      <c r="H411" s="1">
+        <v>12860</v>
+      </c>
+      <c r="I411" s="4">
+        <f t="shared" si="368"/>
+        <v>3</v>
+      </c>
+      <c r="J411" s="4">
+        <f t="shared" si="369"/>
+        <v>6</v>
+      </c>
+      <c r="K411" s="4">
+        <f t="shared" si="370"/>
+        <v>0</v>
+      </c>
+      <c r="L411" s="4">
+        <f t="shared" si="371"/>
+        <v>1</v>
+      </c>
+      <c r="M411" s="1">
+        <f t="shared" si="372"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A412" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B412" s="1">
+        <v>12915</v>
+      </c>
+      <c r="C412" s="1">
+        <f t="shared" si="366"/>
+        <v>-275</v>
+      </c>
+      <c r="D412" s="1">
+        <f t="shared" si="367"/>
+        <v>45</v>
+      </c>
+      <c r="E412" s="1">
+        <v>7</v>
+      </c>
+      <c r="F412" s="1">
+        <v>0</v>
+      </c>
+      <c r="G412" s="1">
+        <v>320</v>
+      </c>
+      <c r="H412" s="1">
+        <v>12870</v>
+      </c>
+      <c r="I412" s="4">
+        <f t="shared" si="368"/>
+        <v>15</v>
+      </c>
+      <c r="J412" s="4">
+        <f t="shared" si="369"/>
+        <v>10</v>
+      </c>
+      <c r="K412" s="4">
+        <f t="shared" si="370"/>
+        <v>0</v>
+      </c>
+      <c r="L412" s="4">
+        <f t="shared" si="371"/>
+        <v>0</v>
+      </c>
+      <c r="M412" s="1">
+        <f t="shared" si="372"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A413" s="2">
+        <v>44380</v>
+      </c>
+      <c r="B413" s="1">
+        <v>12915</v>
+      </c>
+      <c r="C413" s="1">
+        <f t="shared" si="366"/>
+        <v>-275</v>
+      </c>
+      <c r="D413" s="1">
+        <f t="shared" si="367"/>
+        <v>45</v>
+      </c>
+      <c r="E413" s="1">
+        <v>9</v>
+      </c>
+      <c r="F413" s="1">
+        <v>0</v>
+      </c>
+      <c r="G413" s="1">
+        <v>320</v>
+      </c>
+      <c r="H413" s="1">
+        <v>12870</v>
+      </c>
+      <c r="I413" s="4">
+        <f t="shared" si="368"/>
+        <v>0</v>
+      </c>
+      <c r="J413" s="4">
+        <f t="shared" si="369"/>
+        <v>0</v>
+      </c>
+      <c r="K413" s="4">
+        <f t="shared" si="370"/>
+        <v>0</v>
+      </c>
+      <c r="L413" s="4">
+        <f t="shared" si="371"/>
+        <v>2</v>
+      </c>
+      <c r="M413" s="1">
+        <f t="shared" si="372"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A414" s="2">
+        <v>44381</v>
+      </c>
+      <c r="B414" s="1">
+        <v>12915</v>
+      </c>
+      <c r="C414" s="1">
+        <f t="shared" si="366"/>
+        <v>-275</v>
+      </c>
+      <c r="D414" s="1">
+        <f t="shared" si="367"/>
+        <v>45</v>
+      </c>
+      <c r="E414" s="1">
+        <v>8</v>
+      </c>
+      <c r="F414" s="1">
+        <v>0</v>
+      </c>
+      <c r="G414" s="1">
+        <v>320</v>
+      </c>
+      <c r="H414" s="1">
+        <v>12870</v>
+      </c>
+      <c r="I414" s="4">
+        <f t="shared" si="368"/>
+        <v>0</v>
+      </c>
+      <c r="J414" s="4">
+        <f t="shared" si="369"/>
+        <v>0</v>
+      </c>
+      <c r="K414" s="4">
+        <f t="shared" si="370"/>
+        <v>0</v>
+      </c>
+      <c r="L414" s="4">
+        <f t="shared" si="371"/>
+        <v>-1</v>
+      </c>
+      <c r="M414" s="1">
+        <f t="shared" si="372"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A415" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B415" s="1">
+        <v>12931</v>
+      </c>
+      <c r="C415" s="1">
+        <f t="shared" ref="C415:C416" si="373">B415-H415-G415</f>
+        <v>-271</v>
+      </c>
+      <c r="D415" s="1">
+        <f t="shared" ref="D415:D416" si="374">B415-H415</f>
+        <v>49</v>
+      </c>
+      <c r="E415" s="1">
+        <v>7</v>
+      </c>
+      <c r="F415" s="1">
+        <v>0</v>
+      </c>
+      <c r="G415" s="1">
+        <v>320</v>
+      </c>
+      <c r="H415" s="1">
+        <v>12882</v>
+      </c>
+      <c r="I415" s="4">
+        <f t="shared" ref="I415:I416" si="375">B415-B414</f>
+        <v>16</v>
+      </c>
+      <c r="J415" s="4">
+        <f t="shared" ref="J415:J416" si="376">H415-H414</f>
+        <v>12</v>
+      </c>
+      <c r="K415" s="4">
+        <f t="shared" ref="K415:K416" si="377">G415-G414</f>
+        <v>0</v>
+      </c>
+      <c r="L415" s="4">
+        <f t="shared" ref="L415:L416" si="378">E415-E414</f>
+        <v>-1</v>
+      </c>
+      <c r="M415" s="1">
+        <f t="shared" ref="M415:M416" si="379">E415+F415</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A416" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B416" s="1">
+        <v>12934</v>
+      </c>
+      <c r="C416" s="1">
+        <f t="shared" si="373"/>
+        <v>-275</v>
+      </c>
+      <c r="D416" s="1">
+        <f t="shared" si="374"/>
+        <v>46</v>
+      </c>
+      <c r="E416" s="1">
+        <v>8</v>
+      </c>
+      <c r="F416" s="1">
+        <v>0</v>
+      </c>
+      <c r="G416" s="1">
+        <v>321</v>
+      </c>
+      <c r="H416" s="1">
+        <v>12888</v>
+      </c>
+      <c r="I416" s="4">
+        <f t="shared" si="375"/>
+        <v>3</v>
+      </c>
+      <c r="J416" s="4">
+        <f t="shared" si="376"/>
+        <v>6</v>
+      </c>
+      <c r="K416" s="4">
+        <f t="shared" si="377"/>
+        <v>1</v>
+      </c>
+      <c r="L416" s="4">
+        <f t="shared" si="378"/>
+        <v>1</v>
+      </c>
+      <c r="M416" s="1">
+        <f t="shared" si="379"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A417" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B417" s="1">
+        <v>12944</v>
+      </c>
+      <c r="C417" s="1">
+        <f t="shared" ref="C417" si="380">B417-H417-G417</f>
+        <v>-273</v>
+      </c>
+      <c r="D417" s="1">
+        <f t="shared" ref="D417" si="381">B417-H417</f>
+        <v>49</v>
+      </c>
+      <c r="E417" s="1">
+        <v>5</v>
+      </c>
+      <c r="F417" s="1">
+        <v>0</v>
+      </c>
+      <c r="G417" s="1">
+        <v>322</v>
+      </c>
+      <c r="H417" s="1">
+        <v>12895</v>
+      </c>
+      <c r="I417" s="4">
+        <f t="shared" ref="I417" si="382">B417-B416</f>
+        <v>10</v>
+      </c>
+      <c r="J417" s="4">
+        <f t="shared" ref="J417" si="383">H417-H416</f>
+        <v>7</v>
+      </c>
+      <c r="K417" s="4">
+        <f t="shared" ref="K417" si="384">G417-G416</f>
+        <v>1</v>
+      </c>
+      <c r="L417" s="4">
+        <f t="shared" ref="L417" si="385">E417-E416</f>
+        <v>-3</v>
+      </c>
+      <c r="M417" s="1">
+        <f t="shared" ref="M417" si="386">E417+F417</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/COVID SAP.xlsx
+++ b/COVID SAP.xlsx
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U423"/>
+  <dimension ref="A1:U429"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A414" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I429" sqref="I429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20855,6 +20855,294 @@
         <v>0</v>
       </c>
     </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A424" s="2">
+        <v>44391</v>
+      </c>
+      <c r="B424" s="1">
+        <v>12995</v>
+      </c>
+      <c r="C424" s="1">
+        <f t="shared" ref="C424" si="388">B424-H424-G424</f>
+        <v>-268</v>
+      </c>
+      <c r="D424" s="1">
+        <f t="shared" ref="D424" si="389">B424-H424</f>
+        <v>54</v>
+      </c>
+      <c r="E424" s="1">
+        <v>6</v>
+      </c>
+      <c r="F424" s="1">
+        <v>0</v>
+      </c>
+      <c r="G424" s="1">
+        <v>322</v>
+      </c>
+      <c r="H424" s="1">
+        <v>12941</v>
+      </c>
+      <c r="I424" s="4">
+        <f t="shared" ref="I424:I425" si="390">B424-B423</f>
+        <v>3</v>
+      </c>
+      <c r="J424" s="4">
+        <f t="shared" ref="J424:J425" si="391">H424-H423</f>
+        <v>7</v>
+      </c>
+      <c r="K424" s="4">
+        <f t="shared" ref="K424:K425" si="392">G424-G423</f>
+        <v>0</v>
+      </c>
+      <c r="L424" s="4">
+        <f t="shared" ref="L424:L425" si="393">E424-E423</f>
+        <v>0</v>
+      </c>
+      <c r="M424" s="1">
+        <f t="shared" ref="M424:M425" si="394">F424-F423</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A425" s="2">
+        <v>44392</v>
+      </c>
+      <c r="B425" s="1">
+        <v>13011</v>
+      </c>
+      <c r="C425" s="1">
+        <f t="shared" ref="C425:C426" si="395">B425-H425-G425</f>
+        <v>-268</v>
+      </c>
+      <c r="D425" s="1">
+        <f t="shared" ref="D425:D426" si="396">B425-H425</f>
+        <v>54</v>
+      </c>
+      <c r="E425" s="1">
+        <v>6</v>
+      </c>
+      <c r="F425" s="1">
+        <v>0</v>
+      </c>
+      <c r="G425" s="1">
+        <v>322</v>
+      </c>
+      <c r="H425" s="1">
+        <v>12957</v>
+      </c>
+      <c r="I425" s="4">
+        <f t="shared" si="390"/>
+        <v>16</v>
+      </c>
+      <c r="J425" s="4">
+        <f t="shared" si="391"/>
+        <v>16</v>
+      </c>
+      <c r="K425" s="4">
+        <f t="shared" si="392"/>
+        <v>0</v>
+      </c>
+      <c r="L425" s="4">
+        <f t="shared" si="393"/>
+        <v>0</v>
+      </c>
+      <c r="M425" s="1">
+        <f t="shared" si="394"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A426" s="2">
+        <v>44393</v>
+      </c>
+      <c r="B426" s="1">
+        <v>13017</v>
+      </c>
+      <c r="C426" s="1">
+        <f t="shared" si="395"/>
+        <v>-306</v>
+      </c>
+      <c r="D426" s="1">
+        <f t="shared" si="396"/>
+        <v>17</v>
+      </c>
+      <c r="E426" s="1">
+        <v>4</v>
+      </c>
+      <c r="F426" s="1">
+        <v>0</v>
+      </c>
+      <c r="G426" s="1">
+        <v>323</v>
+      </c>
+      <c r="H426" s="1">
+        <v>13000</v>
+      </c>
+      <c r="I426" s="4">
+        <f t="shared" ref="I426:I428" si="397">B426-B425</f>
+        <v>6</v>
+      </c>
+      <c r="J426" s="4">
+        <f t="shared" ref="J426:J428" si="398">H426-H425</f>
+        <v>43</v>
+      </c>
+      <c r="K426" s="4">
+        <f t="shared" ref="K426:K428" si="399">G426-G425</f>
+        <v>1</v>
+      </c>
+      <c r="L426" s="4">
+        <f t="shared" ref="L426:L428" si="400">E426-E425</f>
+        <v>-2</v>
+      </c>
+      <c r="M426" s="1">
+        <f t="shared" ref="M426:M428" si="401">F426-F425</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A427" s="2">
+        <v>44394</v>
+      </c>
+      <c r="B427" s="1">
+        <v>13017</v>
+      </c>
+      <c r="C427" s="1">
+        <f t="shared" ref="C427:C428" si="402">B427-H427-G427</f>
+        <v>-306</v>
+      </c>
+      <c r="D427" s="1">
+        <f t="shared" ref="D427:D428" si="403">B427-H427</f>
+        <v>17</v>
+      </c>
+      <c r="E427" s="1">
+        <v>4</v>
+      </c>
+      <c r="F427" s="1">
+        <v>0</v>
+      </c>
+      <c r="G427" s="1">
+        <v>323</v>
+      </c>
+      <c r="H427" s="1">
+        <v>13000</v>
+      </c>
+      <c r="I427" s="4">
+        <f t="shared" si="397"/>
+        <v>0</v>
+      </c>
+      <c r="J427" s="4">
+        <f t="shared" si="398"/>
+        <v>0</v>
+      </c>
+      <c r="K427" s="4">
+        <f t="shared" si="399"/>
+        <v>0</v>
+      </c>
+      <c r="L427" s="4">
+        <f t="shared" si="400"/>
+        <v>0</v>
+      </c>
+      <c r="M427" s="1">
+        <f t="shared" si="401"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A428" s="2">
+        <v>44395</v>
+      </c>
+      <c r="B428" s="1">
+        <v>13017</v>
+      </c>
+      <c r="C428" s="1">
+        <f t="shared" si="402"/>
+        <v>-306</v>
+      </c>
+      <c r="D428" s="1">
+        <f t="shared" si="403"/>
+        <v>17</v>
+      </c>
+      <c r="E428" s="1">
+        <v>4</v>
+      </c>
+      <c r="F428" s="1">
+        <v>0</v>
+      </c>
+      <c r="G428" s="1">
+        <v>323</v>
+      </c>
+      <c r="H428" s="1">
+        <v>13000</v>
+      </c>
+      <c r="I428" s="4">
+        <f t="shared" si="397"/>
+        <v>0</v>
+      </c>
+      <c r="J428" s="4">
+        <f t="shared" si="398"/>
+        <v>0</v>
+      </c>
+      <c r="K428" s="4">
+        <f t="shared" si="399"/>
+        <v>0</v>
+      </c>
+      <c r="L428" s="4">
+        <f t="shared" si="400"/>
+        <v>0</v>
+      </c>
+      <c r="M428" s="1">
+        <f t="shared" si="401"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A429" s="2">
+        <v>44396</v>
+      </c>
+      <c r="B429" s="1">
+        <v>13035</v>
+      </c>
+      <c r="C429" s="1">
+        <f t="shared" ref="C429" si="404">B429-H429-G429</f>
+        <v>-288</v>
+      </c>
+      <c r="D429" s="1">
+        <f t="shared" ref="D429" si="405">B429-H429</f>
+        <v>35</v>
+      </c>
+      <c r="E429" s="1">
+        <v>3</v>
+      </c>
+      <c r="F429" s="1">
+        <v>0</v>
+      </c>
+      <c r="G429" s="1">
+        <v>323</v>
+      </c>
+      <c r="H429" s="1">
+        <v>13000</v>
+      </c>
+      <c r="I429" s="4">
+        <f t="shared" ref="I429" si="406">B429-B428</f>
+        <v>18</v>
+      </c>
+      <c r="J429" s="4">
+        <f t="shared" ref="J429" si="407">H429-H428</f>
+        <v>0</v>
+      </c>
+      <c r="K429" s="4">
+        <f t="shared" ref="K429" si="408">G429-G428</f>
+        <v>0</v>
+      </c>
+      <c r="L429" s="4">
+        <f t="shared" ref="L429" si="409">E429-E428</f>
+        <v>-1</v>
+      </c>
+      <c r="M429" s="1">
+        <f t="shared" ref="M429" si="410">F429-F428</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20863,10 +21151,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20883,7 +21171,7 @@
     <col min="11" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20915,7 +21203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44390</v>
       </c>
@@ -20946,6 +21234,205 @@
       <c r="J2" s="1">
         <v>322</v>
       </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44391</v>
+      </c>
+      <c r="B3" s="1">
+        <v>672</v>
+      </c>
+      <c r="C3" s="1">
+        <v>32563</v>
+      </c>
+      <c r="D3" s="1">
+        <v>196</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12995</v>
+      </c>
+      <c r="F3" s="1">
+        <v>19372</v>
+      </c>
+      <c r="G3" s="1">
+        <v>12941</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44392</v>
+      </c>
+      <c r="B4" s="1">
+        <v>596</v>
+      </c>
+      <c r="C4" s="1">
+        <v>32640</v>
+      </c>
+      <c r="D4" s="1">
+        <v>180</v>
+      </c>
+      <c r="E4" s="1">
+        <v>13011</v>
+      </c>
+      <c r="F4" s="1">
+        <v>19449</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12957</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44393</v>
+      </c>
+      <c r="B5" s="1">
+        <v>566</v>
+      </c>
+      <c r="C5" s="1">
+        <v>32701</v>
+      </c>
+      <c r="D5" s="1">
+        <v>141</v>
+      </c>
+      <c r="E5" s="1">
+        <v>13017</v>
+      </c>
+      <c r="F5" s="1">
+        <v>19543</v>
+      </c>
+      <c r="G5" s="1">
+        <v>13000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44394</v>
+      </c>
+      <c r="B6" s="1">
+        <v>566</v>
+      </c>
+      <c r="C6" s="1">
+        <v>32701</v>
+      </c>
+      <c r="D6" s="1">
+        <v>141</v>
+      </c>
+      <c r="E6" s="1">
+        <v>13017</v>
+      </c>
+      <c r="F6" s="1">
+        <v>19543</v>
+      </c>
+      <c r="G6" s="1">
+        <v>13000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44395</v>
+      </c>
+      <c r="B7" s="1">
+        <v>566</v>
+      </c>
+      <c r="C7" s="1">
+        <v>32701</v>
+      </c>
+      <c r="D7" s="1">
+        <v>141</v>
+      </c>
+      <c r="E7" s="1">
+        <v>13017</v>
+      </c>
+      <c r="F7" s="1">
+        <v>19543</v>
+      </c>
+      <c r="G7" s="1">
+        <v>13000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44396</v>
+      </c>
+      <c r="B8" s="1">
+        <v>511</v>
+      </c>
+      <c r="C8" s="1">
+        <v>32766</v>
+      </c>
+      <c r="D8" s="1">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1">
+        <v>13035</v>
+      </c>
+      <c r="F8" s="1">
+        <v>19674</v>
+      </c>
+      <c r="G8" s="1">
+        <v>13000</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>323</v>
+      </c>
+      <c r="L8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/COVID SAP.xlsx
+++ b/COVID SAP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="2" r:id="rId1"/>
@@ -469,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U429"/>
+  <dimension ref="A1:U459"/>
   <sheetViews>
-    <sheetView topLeftCell="A414" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I429" sqref="I429"/>
+    <sheetView tabSelected="1" topLeftCell="A433" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H451" sqref="H451:H459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21143,6 +21143,1446 @@
         <v>0</v>
       </c>
     </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A430" s="2">
+        <v>44397</v>
+      </c>
+      <c r="B430" s="1">
+        <v>13040</v>
+      </c>
+      <c r="C430" s="1">
+        <f t="shared" ref="C430:C431" si="411">B430-H430-G430</f>
+        <v>-283</v>
+      </c>
+      <c r="D430" s="1">
+        <f t="shared" ref="D430:D431" si="412">B430-H430</f>
+        <v>40</v>
+      </c>
+      <c r="E430" s="1">
+        <v>3</v>
+      </c>
+      <c r="F430" s="1">
+        <v>0</v>
+      </c>
+      <c r="G430" s="1">
+        <v>323</v>
+      </c>
+      <c r="H430" s="1">
+        <v>13000</v>
+      </c>
+      <c r="I430" s="4">
+        <f t="shared" ref="I430:I431" si="413">B430-B429</f>
+        <v>5</v>
+      </c>
+      <c r="J430" s="4">
+        <f t="shared" ref="J430:J431" si="414">H430-H429</f>
+        <v>0</v>
+      </c>
+      <c r="K430" s="4">
+        <f t="shared" ref="K430:K431" si="415">G430-G429</f>
+        <v>0</v>
+      </c>
+      <c r="L430" s="4">
+        <f t="shared" ref="L430:L431" si="416">E430-E429</f>
+        <v>0</v>
+      </c>
+      <c r="M430" s="1">
+        <f t="shared" ref="M430:M431" si="417">F430-F429</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A431" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B431" s="1">
+        <v>13049</v>
+      </c>
+      <c r="C431" s="1">
+        <f t="shared" si="411"/>
+        <v>-283</v>
+      </c>
+      <c r="D431" s="1">
+        <f t="shared" si="412"/>
+        <v>40</v>
+      </c>
+      <c r="E431" s="1">
+        <v>2</v>
+      </c>
+      <c r="F431" s="1">
+        <v>0</v>
+      </c>
+      <c r="G431" s="1">
+        <v>323</v>
+      </c>
+      <c r="H431" s="1">
+        <v>13009</v>
+      </c>
+      <c r="I431" s="4">
+        <f t="shared" si="413"/>
+        <v>9</v>
+      </c>
+      <c r="J431" s="4">
+        <f t="shared" si="414"/>
+        <v>9</v>
+      </c>
+      <c r="K431" s="4">
+        <f t="shared" si="415"/>
+        <v>0</v>
+      </c>
+      <c r="L431" s="4">
+        <f t="shared" si="416"/>
+        <v>-1</v>
+      </c>
+      <c r="M431" s="1">
+        <f t="shared" si="417"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A432" s="2">
+        <v>44399</v>
+      </c>
+      <c r="B432" s="1">
+        <v>13051</v>
+      </c>
+      <c r="C432" s="1">
+        <f t="shared" ref="C432" si="418">B432-H432-G432</f>
+        <v>-290</v>
+      </c>
+      <c r="D432" s="1">
+        <f t="shared" ref="D432" si="419">B432-H432</f>
+        <v>33</v>
+      </c>
+      <c r="E432" s="1">
+        <v>4</v>
+      </c>
+      <c r="F432" s="1">
+        <v>0</v>
+      </c>
+      <c r="G432" s="1">
+        <v>323</v>
+      </c>
+      <c r="H432" s="1">
+        <v>13018</v>
+      </c>
+      <c r="I432" s="4">
+        <f t="shared" ref="I432" si="420">B432-B431</f>
+        <v>2</v>
+      </c>
+      <c r="J432" s="4">
+        <f t="shared" ref="J432" si="421">H432-H431</f>
+        <v>9</v>
+      </c>
+      <c r="K432" s="4">
+        <f t="shared" ref="K432" si="422">G432-G431</f>
+        <v>0</v>
+      </c>
+      <c r="L432" s="4">
+        <f t="shared" ref="L432" si="423">E432-E431</f>
+        <v>2</v>
+      </c>
+      <c r="M432" s="1">
+        <f t="shared" ref="M432" si="424">F432-F431</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A433" s="2">
+        <v>44400</v>
+      </c>
+      <c r="B433" s="1">
+        <v>13058</v>
+      </c>
+      <c r="C433" s="1">
+        <f t="shared" ref="C433:C436" si="425">B433-H433-G433</f>
+        <v>-293</v>
+      </c>
+      <c r="D433" s="1">
+        <f t="shared" ref="D433:D436" si="426">B433-H433</f>
+        <v>30</v>
+      </c>
+      <c r="E433" s="1">
+        <v>4</v>
+      </c>
+      <c r="F433" s="1">
+        <v>0</v>
+      </c>
+      <c r="G433" s="1">
+        <v>323</v>
+      </c>
+      <c r="H433" s="1">
+        <v>13028</v>
+      </c>
+      <c r="I433" s="4">
+        <f t="shared" ref="I433:I436" si="427">B433-B432</f>
+        <v>7</v>
+      </c>
+      <c r="J433" s="4">
+        <f t="shared" ref="J433:J436" si="428">H433-H432</f>
+        <v>10</v>
+      </c>
+      <c r="K433" s="4">
+        <f t="shared" ref="K433:K436" si="429">G433-G432</f>
+        <v>0</v>
+      </c>
+      <c r="L433" s="4">
+        <f t="shared" ref="L433:L436" si="430">E433-E432</f>
+        <v>0</v>
+      </c>
+      <c r="M433" s="1">
+        <f t="shared" ref="M433:M436" si="431">F433-F432</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A434" s="2">
+        <v>44401</v>
+      </c>
+      <c r="B434" s="1">
+        <v>13058</v>
+      </c>
+      <c r="C434" s="1">
+        <f t="shared" si="425"/>
+        <v>-293</v>
+      </c>
+      <c r="D434" s="1">
+        <f t="shared" si="426"/>
+        <v>30</v>
+      </c>
+      <c r="E434" s="1">
+        <v>4</v>
+      </c>
+      <c r="F434" s="1">
+        <v>0</v>
+      </c>
+      <c r="G434" s="1">
+        <v>323</v>
+      </c>
+      <c r="H434" s="1">
+        <v>13028</v>
+      </c>
+      <c r="I434" s="4">
+        <f t="shared" si="427"/>
+        <v>0</v>
+      </c>
+      <c r="J434" s="4">
+        <f t="shared" si="428"/>
+        <v>0</v>
+      </c>
+      <c r="K434" s="4">
+        <f t="shared" si="429"/>
+        <v>0</v>
+      </c>
+      <c r="L434" s="4">
+        <f t="shared" si="430"/>
+        <v>0</v>
+      </c>
+      <c r="M434" s="1">
+        <f t="shared" si="431"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A435" s="2">
+        <v>44402</v>
+      </c>
+      <c r="B435" s="1">
+        <v>13058</v>
+      </c>
+      <c r="C435" s="1">
+        <f t="shared" si="425"/>
+        <v>-293</v>
+      </c>
+      <c r="D435" s="1">
+        <f t="shared" si="426"/>
+        <v>30</v>
+      </c>
+      <c r="E435" s="1">
+        <v>4</v>
+      </c>
+      <c r="F435" s="1">
+        <v>0</v>
+      </c>
+      <c r="G435" s="1">
+        <v>323</v>
+      </c>
+      <c r="H435" s="1">
+        <v>13028</v>
+      </c>
+      <c r="I435" s="4">
+        <f t="shared" si="427"/>
+        <v>0</v>
+      </c>
+      <c r="J435" s="4">
+        <f t="shared" si="428"/>
+        <v>0</v>
+      </c>
+      <c r="K435" s="4">
+        <f t="shared" si="429"/>
+        <v>0</v>
+      </c>
+      <c r="L435" s="4">
+        <f t="shared" si="430"/>
+        <v>0</v>
+      </c>
+      <c r="M435" s="1">
+        <f t="shared" si="431"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A436" s="2">
+        <v>44403</v>
+      </c>
+      <c r="B436" s="1">
+        <v>13067</v>
+      </c>
+      <c r="C436" s="1">
+        <f t="shared" si="425"/>
+        <v>-296</v>
+      </c>
+      <c r="D436" s="1">
+        <f t="shared" si="426"/>
+        <v>27</v>
+      </c>
+      <c r="E436" s="1">
+        <v>2</v>
+      </c>
+      <c r="F436" s="1">
+        <v>0</v>
+      </c>
+      <c r="G436" s="1">
+        <v>323</v>
+      </c>
+      <c r="H436" s="1">
+        <v>13040</v>
+      </c>
+      <c r="I436" s="4">
+        <f t="shared" si="427"/>
+        <v>9</v>
+      </c>
+      <c r="J436" s="4">
+        <f t="shared" si="428"/>
+        <v>12</v>
+      </c>
+      <c r="K436" s="4">
+        <f t="shared" si="429"/>
+        <v>0</v>
+      </c>
+      <c r="L436" s="4">
+        <f t="shared" si="430"/>
+        <v>-2</v>
+      </c>
+      <c r="M436" s="1">
+        <f t="shared" si="431"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A437" s="2">
+        <v>44404</v>
+      </c>
+      <c r="B437" s="1">
+        <v>13069</v>
+      </c>
+      <c r="C437" s="1">
+        <f t="shared" ref="C437:C438" si="432">B437-H437-G437</f>
+        <v>-295</v>
+      </c>
+      <c r="D437" s="1">
+        <f t="shared" ref="D437:D438" si="433">B437-H437</f>
+        <v>28</v>
+      </c>
+      <c r="E437" s="1">
+        <v>2</v>
+      </c>
+      <c r="F437" s="1">
+        <v>0</v>
+      </c>
+      <c r="G437" s="1">
+        <v>323</v>
+      </c>
+      <c r="H437" s="1">
+        <v>13041</v>
+      </c>
+      <c r="I437" s="4">
+        <f t="shared" ref="I437:I438" si="434">B437-B436</f>
+        <v>2</v>
+      </c>
+      <c r="J437" s="4">
+        <f t="shared" ref="J437:J438" si="435">H437-H436</f>
+        <v>1</v>
+      </c>
+      <c r="K437" s="4">
+        <f t="shared" ref="K437:K438" si="436">G437-G436</f>
+        <v>0</v>
+      </c>
+      <c r="L437" s="4">
+        <f t="shared" ref="L437:L438" si="437">E437-E436</f>
+        <v>0</v>
+      </c>
+      <c r="M437" s="1">
+        <f t="shared" ref="M437:M438" si="438">F437-F436</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A438" s="2">
+        <v>44405</v>
+      </c>
+      <c r="B438" s="1">
+        <v>13070</v>
+      </c>
+      <c r="C438" s="1">
+        <f t="shared" si="432"/>
+        <v>-298</v>
+      </c>
+      <c r="D438" s="1">
+        <f t="shared" si="433"/>
+        <v>26</v>
+      </c>
+      <c r="E438" s="1">
+        <v>3</v>
+      </c>
+      <c r="F438" s="1">
+        <v>0</v>
+      </c>
+      <c r="G438" s="1">
+        <v>324</v>
+      </c>
+      <c r="H438" s="1">
+        <v>13044</v>
+      </c>
+      <c r="I438" s="4">
+        <f t="shared" si="434"/>
+        <v>1</v>
+      </c>
+      <c r="J438" s="4">
+        <f t="shared" si="435"/>
+        <v>3</v>
+      </c>
+      <c r="K438" s="4">
+        <f t="shared" si="436"/>
+        <v>1</v>
+      </c>
+      <c r="L438" s="4">
+        <f t="shared" si="437"/>
+        <v>1</v>
+      </c>
+      <c r="M438" s="1">
+        <f t="shared" si="438"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A439" s="2">
+        <v>44406</v>
+      </c>
+      <c r="B439" s="1">
+        <v>13077</v>
+      </c>
+      <c r="C439" s="1">
+        <f t="shared" ref="C439" si="439">B439-H439-G439</f>
+        <v>-295</v>
+      </c>
+      <c r="D439" s="1">
+        <f t="shared" ref="D439" si="440">B439-H439</f>
+        <v>29</v>
+      </c>
+      <c r="E439" s="1">
+        <v>3</v>
+      </c>
+      <c r="F439" s="1">
+        <v>0</v>
+      </c>
+      <c r="G439" s="1">
+        <v>324</v>
+      </c>
+      <c r="H439" s="1">
+        <v>13048</v>
+      </c>
+      <c r="I439" s="4">
+        <f t="shared" ref="I439" si="441">B439-B438</f>
+        <v>7</v>
+      </c>
+      <c r="J439" s="4">
+        <f t="shared" ref="J439" si="442">H439-H438</f>
+        <v>4</v>
+      </c>
+      <c r="K439" s="4">
+        <f t="shared" ref="K439" si="443">G439-G438</f>
+        <v>0</v>
+      </c>
+      <c r="L439" s="4">
+        <f t="shared" ref="L439" si="444">E439-E438</f>
+        <v>0</v>
+      </c>
+      <c r="M439" s="1">
+        <f t="shared" ref="M439" si="445">F439-F438</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A440" s="2">
+        <v>44407</v>
+      </c>
+      <c r="B440" s="1">
+        <v>13084</v>
+      </c>
+      <c r="C440" s="1">
+        <f t="shared" ref="C440:C443" si="446">B440-H440-G440</f>
+        <v>-291</v>
+      </c>
+      <c r="D440" s="1">
+        <f t="shared" ref="D440:D443" si="447">B440-H440</f>
+        <v>33</v>
+      </c>
+      <c r="E440" s="1">
+        <v>3</v>
+      </c>
+      <c r="F440" s="1">
+        <v>0</v>
+      </c>
+      <c r="G440" s="1">
+        <v>324</v>
+      </c>
+      <c r="H440" s="1">
+        <v>13051</v>
+      </c>
+      <c r="I440" s="4">
+        <f t="shared" ref="I440:I443" si="448">B440-B439</f>
+        <v>7</v>
+      </c>
+      <c r="J440" s="4">
+        <f t="shared" ref="J440:J443" si="449">H440-H439</f>
+        <v>3</v>
+      </c>
+      <c r="K440" s="4">
+        <f t="shared" ref="K440:K443" si="450">G440-G439</f>
+        <v>0</v>
+      </c>
+      <c r="L440" s="4">
+        <f t="shared" ref="L440:L443" si="451">E440-E439</f>
+        <v>0</v>
+      </c>
+      <c r="M440" s="1">
+        <f t="shared" ref="M440:M443" si="452">F440-F439</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A441" s="2">
+        <v>44408</v>
+      </c>
+      <c r="B441" s="1">
+        <v>13084</v>
+      </c>
+      <c r="C441" s="1">
+        <f t="shared" si="446"/>
+        <v>-291</v>
+      </c>
+      <c r="D441" s="1">
+        <f t="shared" si="447"/>
+        <v>33</v>
+      </c>
+      <c r="E441" s="1">
+        <v>3</v>
+      </c>
+      <c r="F441" s="1">
+        <v>0</v>
+      </c>
+      <c r="G441" s="1">
+        <v>324</v>
+      </c>
+      <c r="H441" s="1">
+        <v>13051</v>
+      </c>
+      <c r="I441" s="4">
+        <f t="shared" si="448"/>
+        <v>0</v>
+      </c>
+      <c r="J441" s="4">
+        <f t="shared" si="449"/>
+        <v>0</v>
+      </c>
+      <c r="K441" s="4">
+        <f t="shared" si="450"/>
+        <v>0</v>
+      </c>
+      <c r="L441" s="4">
+        <f t="shared" si="451"/>
+        <v>0</v>
+      </c>
+      <c r="M441" s="1">
+        <f t="shared" si="452"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A442" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B442" s="1">
+        <v>13084</v>
+      </c>
+      <c r="C442" s="1">
+        <f t="shared" si="446"/>
+        <v>-291</v>
+      </c>
+      <c r="D442" s="1">
+        <f t="shared" si="447"/>
+        <v>33</v>
+      </c>
+      <c r="E442" s="1">
+        <v>3</v>
+      </c>
+      <c r="F442" s="1">
+        <v>0</v>
+      </c>
+      <c r="G442" s="1">
+        <v>324</v>
+      </c>
+      <c r="H442" s="1">
+        <v>13051</v>
+      </c>
+      <c r="I442" s="4">
+        <f t="shared" si="448"/>
+        <v>0</v>
+      </c>
+      <c r="J442" s="4">
+        <f t="shared" si="449"/>
+        <v>0</v>
+      </c>
+      <c r="K442" s="4">
+        <f t="shared" si="450"/>
+        <v>0</v>
+      </c>
+      <c r="L442" s="4">
+        <f t="shared" si="451"/>
+        <v>0</v>
+      </c>
+      <c r="M442" s="1">
+        <f t="shared" si="452"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A443" s="2">
+        <v>44410</v>
+      </c>
+      <c r="B443" s="1">
+        <v>13096</v>
+      </c>
+      <c r="C443" s="1">
+        <f t="shared" si="446"/>
+        <v>-281</v>
+      </c>
+      <c r="D443" s="1">
+        <f t="shared" si="447"/>
+        <v>43</v>
+      </c>
+      <c r="E443" s="1">
+        <v>5</v>
+      </c>
+      <c r="F443" s="1">
+        <v>0</v>
+      </c>
+      <c r="G443" s="1">
+        <v>324</v>
+      </c>
+      <c r="H443" s="1">
+        <v>13053</v>
+      </c>
+      <c r="I443" s="4">
+        <f t="shared" si="448"/>
+        <v>12</v>
+      </c>
+      <c r="J443" s="4">
+        <f t="shared" si="449"/>
+        <v>2</v>
+      </c>
+      <c r="K443" s="4">
+        <f t="shared" si="450"/>
+        <v>0</v>
+      </c>
+      <c r="L443" s="4">
+        <f t="shared" si="451"/>
+        <v>2</v>
+      </c>
+      <c r="M443" s="1">
+        <f t="shared" si="452"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A444" s="2">
+        <v>44411</v>
+      </c>
+      <c r="B444" s="1">
+        <v>13102</v>
+      </c>
+      <c r="C444" s="1">
+        <f t="shared" ref="C444" si="453">B444-H444-G444</f>
+        <v>-288</v>
+      </c>
+      <c r="D444" s="1">
+        <f t="shared" ref="D444" si="454">B444-H444</f>
+        <v>36</v>
+      </c>
+      <c r="E444" s="1">
+        <v>5</v>
+      </c>
+      <c r="F444" s="1">
+        <v>0</v>
+      </c>
+      <c r="G444" s="1">
+        <v>324</v>
+      </c>
+      <c r="H444" s="1">
+        <v>13066</v>
+      </c>
+      <c r="I444" s="4">
+        <f t="shared" ref="I444" si="455">B444-B443</f>
+        <v>6</v>
+      </c>
+      <c r="J444" s="4">
+        <f t="shared" ref="J444" si="456">H444-H443</f>
+        <v>13</v>
+      </c>
+      <c r="K444" s="4">
+        <f t="shared" ref="K444" si="457">G444-G443</f>
+        <v>0</v>
+      </c>
+      <c r="L444" s="4">
+        <f t="shared" ref="L444" si="458">E444-E443</f>
+        <v>0</v>
+      </c>
+      <c r="M444" s="1">
+        <f t="shared" ref="M444" si="459">F444-F443</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A445" s="2">
+        <v>44412</v>
+      </c>
+      <c r="B445" s="1">
+        <v>13109</v>
+      </c>
+      <c r="C445" s="1">
+        <f t="shared" ref="C445:C446" si="460">B445-H445-G445</f>
+        <v>-289</v>
+      </c>
+      <c r="D445" s="1">
+        <f t="shared" ref="D445:D446" si="461">B445-H445</f>
+        <v>35</v>
+      </c>
+      <c r="E445" s="1">
+        <v>6</v>
+      </c>
+      <c r="F445" s="1">
+        <v>0</v>
+      </c>
+      <c r="G445" s="1">
+        <v>324</v>
+      </c>
+      <c r="H445" s="1">
+        <v>13074</v>
+      </c>
+      <c r="I445" s="4">
+        <f t="shared" ref="I445:I446" si="462">B445-B444</f>
+        <v>7</v>
+      </c>
+      <c r="J445" s="4">
+        <f t="shared" ref="J445:J446" si="463">H445-H444</f>
+        <v>8</v>
+      </c>
+      <c r="K445" s="4">
+        <f t="shared" ref="K445:K446" si="464">G445-G444</f>
+        <v>0</v>
+      </c>
+      <c r="L445" s="4">
+        <f t="shared" ref="L445:L446" si="465">E445-E444</f>
+        <v>1</v>
+      </c>
+      <c r="M445" s="1">
+        <f t="shared" ref="M445:M446" si="466">F445-F444</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A446" s="2">
+        <v>44413</v>
+      </c>
+      <c r="B446" s="1">
+        <v>13130</v>
+      </c>
+      <c r="C446" s="1">
+        <f t="shared" si="460"/>
+        <v>-274</v>
+      </c>
+      <c r="D446" s="1">
+        <f t="shared" si="461"/>
+        <v>51</v>
+      </c>
+      <c r="E446" s="1">
+        <v>6</v>
+      </c>
+      <c r="F446" s="1">
+        <v>0</v>
+      </c>
+      <c r="G446" s="1">
+        <v>325</v>
+      </c>
+      <c r="H446" s="1">
+        <v>13079</v>
+      </c>
+      <c r="I446" s="4">
+        <f t="shared" si="462"/>
+        <v>21</v>
+      </c>
+      <c r="J446" s="4">
+        <f t="shared" si="463"/>
+        <v>5</v>
+      </c>
+      <c r="K446" s="4">
+        <f t="shared" si="464"/>
+        <v>1</v>
+      </c>
+      <c r="L446" s="4">
+        <f t="shared" si="465"/>
+        <v>0</v>
+      </c>
+      <c r="M446" s="1">
+        <f t="shared" si="466"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A447" s="2">
+        <v>44414</v>
+      </c>
+      <c r="B447" s="1">
+        <v>13136</v>
+      </c>
+      <c r="C447" s="1">
+        <f t="shared" ref="C447:C450" si="467">B447-H447-G447</f>
+        <v>-277</v>
+      </c>
+      <c r="D447" s="1">
+        <f t="shared" ref="D447:D450" si="468">B447-H447</f>
+        <v>48</v>
+      </c>
+      <c r="E447" s="1">
+        <v>6</v>
+      </c>
+      <c r="F447" s="1">
+        <v>0</v>
+      </c>
+      <c r="G447" s="1">
+        <v>325</v>
+      </c>
+      <c r="H447" s="1">
+        <v>13088</v>
+      </c>
+      <c r="I447" s="4">
+        <f t="shared" ref="I447:I450" si="469">B447-B446</f>
+        <v>6</v>
+      </c>
+      <c r="J447" s="4">
+        <f t="shared" ref="J447:J450" si="470">H447-H446</f>
+        <v>9</v>
+      </c>
+      <c r="K447" s="4">
+        <f t="shared" ref="K447:K450" si="471">G447-G446</f>
+        <v>0</v>
+      </c>
+      <c r="L447" s="4">
+        <f t="shared" ref="L447:L450" si="472">E447-E446</f>
+        <v>0</v>
+      </c>
+      <c r="M447" s="1">
+        <f t="shared" ref="M447:M450" si="473">F447-F446</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A448" s="2">
+        <v>44415</v>
+      </c>
+      <c r="B448" s="1">
+        <v>13136</v>
+      </c>
+      <c r="C448" s="1">
+        <f t="shared" si="467"/>
+        <v>-278</v>
+      </c>
+      <c r="D448" s="1">
+        <f t="shared" si="468"/>
+        <v>48</v>
+      </c>
+      <c r="E448" s="1">
+        <v>4</v>
+      </c>
+      <c r="F448" s="1">
+        <v>0</v>
+      </c>
+      <c r="G448" s="1">
+        <v>326</v>
+      </c>
+      <c r="H448" s="1">
+        <v>13088</v>
+      </c>
+      <c r="I448" s="4">
+        <f t="shared" si="469"/>
+        <v>0</v>
+      </c>
+      <c r="J448" s="4">
+        <f t="shared" si="470"/>
+        <v>0</v>
+      </c>
+      <c r="K448" s="4">
+        <f t="shared" si="471"/>
+        <v>1</v>
+      </c>
+      <c r="L448" s="4">
+        <f t="shared" si="472"/>
+        <v>-2</v>
+      </c>
+      <c r="M448" s="1">
+        <f t="shared" si="473"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B449" s="1">
+        <v>13136</v>
+      </c>
+      <c r="C449" s="1">
+        <f t="shared" si="467"/>
+        <v>-278</v>
+      </c>
+      <c r="D449" s="1">
+        <f t="shared" si="468"/>
+        <v>48</v>
+      </c>
+      <c r="E449" s="1">
+        <v>3</v>
+      </c>
+      <c r="F449" s="1">
+        <v>0</v>
+      </c>
+      <c r="G449" s="1">
+        <v>326</v>
+      </c>
+      <c r="H449" s="1">
+        <v>13088</v>
+      </c>
+      <c r="I449" s="4">
+        <f t="shared" si="469"/>
+        <v>0</v>
+      </c>
+      <c r="J449" s="4">
+        <f t="shared" si="470"/>
+        <v>0</v>
+      </c>
+      <c r="K449" s="4">
+        <f t="shared" si="471"/>
+        <v>0</v>
+      </c>
+      <c r="L449" s="4">
+        <f t="shared" si="472"/>
+        <v>-1</v>
+      </c>
+      <c r="M449" s="1">
+        <f t="shared" si="473"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B450" s="1">
+        <v>13156</v>
+      </c>
+      <c r="C450" s="1">
+        <f t="shared" si="467"/>
+        <v>-270</v>
+      </c>
+      <c r="D450" s="1">
+        <f t="shared" si="468"/>
+        <v>56</v>
+      </c>
+      <c r="E450" s="1">
+        <v>4</v>
+      </c>
+      <c r="F450" s="1">
+        <v>0</v>
+      </c>
+      <c r="G450" s="1">
+        <v>326</v>
+      </c>
+      <c r="H450" s="1">
+        <v>13100</v>
+      </c>
+      <c r="I450" s="4">
+        <f t="shared" si="469"/>
+        <v>20</v>
+      </c>
+      <c r="J450" s="4">
+        <f t="shared" si="470"/>
+        <v>12</v>
+      </c>
+      <c r="K450" s="4">
+        <f t="shared" si="471"/>
+        <v>0</v>
+      </c>
+      <c r="L450" s="4">
+        <f t="shared" si="472"/>
+        <v>1</v>
+      </c>
+      <c r="M450" s="1">
+        <f t="shared" si="473"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B451" s="1">
+        <v>13160</v>
+      </c>
+      <c r="C451" s="1">
+        <f t="shared" ref="C451:C459" si="474">B451-H451-G451</f>
+        <v>-276</v>
+      </c>
+      <c r="D451" s="1">
+        <f t="shared" ref="D451:D459" si="475">B451-H451</f>
+        <v>50</v>
+      </c>
+      <c r="E451" s="1">
+        <v>3</v>
+      </c>
+      <c r="F451" s="1">
+        <v>0</v>
+      </c>
+      <c r="G451" s="1">
+        <v>326</v>
+      </c>
+      <c r="H451" s="1">
+        <v>13110</v>
+      </c>
+      <c r="I451" s="4">
+        <f t="shared" ref="I451:I459" si="476">B451-B450</f>
+        <v>4</v>
+      </c>
+      <c r="J451" s="4">
+        <f t="shared" ref="J451:J459" si="477">H451-H450</f>
+        <v>10</v>
+      </c>
+      <c r="K451" s="4">
+        <f t="shared" ref="K451:K459" si="478">G451-G450</f>
+        <v>0</v>
+      </c>
+      <c r="L451" s="4">
+        <f t="shared" ref="L451:L459" si="479">E451-E450</f>
+        <v>-1</v>
+      </c>
+      <c r="M451" s="1">
+        <f t="shared" ref="M451:M459" si="480">F451-F450</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A452" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B452" s="1">
+        <v>13162</v>
+      </c>
+      <c r="C452" s="1">
+        <f t="shared" si="474"/>
+        <v>-276</v>
+      </c>
+      <c r="D452" s="1">
+        <f t="shared" si="475"/>
+        <v>50</v>
+      </c>
+      <c r="E452" s="1">
+        <v>2</v>
+      </c>
+      <c r="F452" s="1">
+        <v>0</v>
+      </c>
+      <c r="G452" s="1">
+        <v>326</v>
+      </c>
+      <c r="H452" s="1">
+        <v>13112</v>
+      </c>
+      <c r="I452" s="4">
+        <f t="shared" si="476"/>
+        <v>2</v>
+      </c>
+      <c r="J452" s="4">
+        <f t="shared" si="477"/>
+        <v>2</v>
+      </c>
+      <c r="K452" s="4">
+        <f t="shared" si="478"/>
+        <v>0</v>
+      </c>
+      <c r="L452" s="4">
+        <f t="shared" si="479"/>
+        <v>-1</v>
+      </c>
+      <c r="M452" s="1">
+        <f t="shared" si="480"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A453" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B453" s="1">
+        <v>13168</v>
+      </c>
+      <c r="C453" s="1">
+        <f t="shared" si="474"/>
+        <v>-292</v>
+      </c>
+      <c r="D453" s="1">
+        <f t="shared" si="475"/>
+        <v>34</v>
+      </c>
+      <c r="E453" s="1">
+        <v>1</v>
+      </c>
+      <c r="F453" s="1">
+        <v>0</v>
+      </c>
+      <c r="G453" s="1">
+        <v>326</v>
+      </c>
+      <c r="H453" s="1">
+        <v>13134</v>
+      </c>
+      <c r="I453" s="4">
+        <f t="shared" si="476"/>
+        <v>6</v>
+      </c>
+      <c r="J453" s="4">
+        <f t="shared" si="477"/>
+        <v>22</v>
+      </c>
+      <c r="K453" s="4">
+        <f t="shared" si="478"/>
+        <v>0</v>
+      </c>
+      <c r="L453" s="4">
+        <f t="shared" si="479"/>
+        <v>-1</v>
+      </c>
+      <c r="M453" s="1">
+        <f t="shared" si="480"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A454" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B454" s="1">
+        <v>13182</v>
+      </c>
+      <c r="C454" s="1">
+        <f t="shared" si="474"/>
+        <v>-281</v>
+      </c>
+      <c r="D454" s="1">
+        <f t="shared" si="475"/>
+        <v>45</v>
+      </c>
+      <c r="E454" s="1">
+        <v>1</v>
+      </c>
+      <c r="F454" s="1">
+        <v>0</v>
+      </c>
+      <c r="G454" s="1">
+        <v>326</v>
+      </c>
+      <c r="H454" s="1">
+        <v>13137</v>
+      </c>
+      <c r="I454" s="4">
+        <f t="shared" si="476"/>
+        <v>14</v>
+      </c>
+      <c r="J454" s="4">
+        <f t="shared" si="477"/>
+        <v>3</v>
+      </c>
+      <c r="K454" s="4">
+        <f t="shared" si="478"/>
+        <v>0</v>
+      </c>
+      <c r="L454" s="4">
+        <f t="shared" si="479"/>
+        <v>0</v>
+      </c>
+      <c r="M454" s="1">
+        <f t="shared" si="480"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A455" s="2">
+        <v>44422</v>
+      </c>
+      <c r="B455" s="1">
+        <v>13182</v>
+      </c>
+      <c r="C455" s="1">
+        <f t="shared" si="474"/>
+        <v>-281</v>
+      </c>
+      <c r="D455" s="1">
+        <f t="shared" si="475"/>
+        <v>45</v>
+      </c>
+      <c r="E455" s="1">
+        <v>2</v>
+      </c>
+      <c r="F455" s="1">
+        <v>0</v>
+      </c>
+      <c r="G455" s="1">
+        <v>326</v>
+      </c>
+      <c r="H455" s="1">
+        <v>13137</v>
+      </c>
+      <c r="I455" s="4">
+        <f t="shared" si="476"/>
+        <v>0</v>
+      </c>
+      <c r="J455" s="4">
+        <f t="shared" si="477"/>
+        <v>0</v>
+      </c>
+      <c r="K455" s="4">
+        <f t="shared" si="478"/>
+        <v>0</v>
+      </c>
+      <c r="L455" s="4">
+        <f t="shared" si="479"/>
+        <v>1</v>
+      </c>
+      <c r="M455" s="1">
+        <f t="shared" si="480"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A456" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B456" s="1">
+        <v>13182</v>
+      </c>
+      <c r="C456" s="1">
+        <f t="shared" si="474"/>
+        <v>-281</v>
+      </c>
+      <c r="D456" s="1">
+        <f t="shared" si="475"/>
+        <v>45</v>
+      </c>
+      <c r="E456" s="1">
+        <v>3</v>
+      </c>
+      <c r="F456" s="1">
+        <v>0</v>
+      </c>
+      <c r="G456" s="1">
+        <v>326</v>
+      </c>
+      <c r="H456" s="1">
+        <v>13137</v>
+      </c>
+      <c r="I456" s="4">
+        <f t="shared" si="476"/>
+        <v>0</v>
+      </c>
+      <c r="J456" s="4">
+        <f t="shared" si="477"/>
+        <v>0</v>
+      </c>
+      <c r="K456" s="4">
+        <f t="shared" si="478"/>
+        <v>0</v>
+      </c>
+      <c r="L456" s="4">
+        <f t="shared" si="479"/>
+        <v>1</v>
+      </c>
+      <c r="M456" s="1">
+        <f t="shared" si="480"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A457" s="2">
+        <v>44424</v>
+      </c>
+      <c r="B457" s="1">
+        <v>13194</v>
+      </c>
+      <c r="C457" s="1">
+        <f t="shared" si="474"/>
+        <v>-286</v>
+      </c>
+      <c r="D457" s="1">
+        <f t="shared" si="475"/>
+        <v>40</v>
+      </c>
+      <c r="E457" s="1">
+        <v>3</v>
+      </c>
+      <c r="F457" s="1">
+        <v>0</v>
+      </c>
+      <c r="G457" s="1">
+        <v>326</v>
+      </c>
+      <c r="H457" s="1">
+        <v>13154</v>
+      </c>
+      <c r="I457" s="4">
+        <f t="shared" si="476"/>
+        <v>12</v>
+      </c>
+      <c r="J457" s="4">
+        <f t="shared" si="477"/>
+        <v>17</v>
+      </c>
+      <c r="K457" s="4">
+        <f t="shared" si="478"/>
+        <v>0</v>
+      </c>
+      <c r="L457" s="4">
+        <f t="shared" si="479"/>
+        <v>0</v>
+      </c>
+      <c r="M457" s="1">
+        <f t="shared" si="480"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A458" s="2">
+        <v>44425</v>
+      </c>
+      <c r="B458" s="1">
+        <v>13194</v>
+      </c>
+      <c r="C458" s="1">
+        <f t="shared" si="474"/>
+        <v>-294</v>
+      </c>
+      <c r="D458" s="1">
+        <f t="shared" si="475"/>
+        <v>32</v>
+      </c>
+      <c r="E458" s="1">
+        <v>3</v>
+      </c>
+      <c r="F458" s="1">
+        <v>0</v>
+      </c>
+      <c r="G458" s="1">
+        <v>326</v>
+      </c>
+      <c r="H458" s="1">
+        <v>13162</v>
+      </c>
+      <c r="I458" s="4">
+        <f t="shared" si="476"/>
+        <v>0</v>
+      </c>
+      <c r="J458" s="4">
+        <f t="shared" si="477"/>
+        <v>8</v>
+      </c>
+      <c r="K458" s="4">
+        <f t="shared" si="478"/>
+        <v>0</v>
+      </c>
+      <c r="L458" s="4">
+        <f t="shared" si="479"/>
+        <v>0</v>
+      </c>
+      <c r="M458" s="1">
+        <f t="shared" si="480"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A459" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B459" s="1">
+        <v>13198</v>
+      </c>
+      <c r="C459" s="1">
+        <f t="shared" si="474"/>
+        <v>-296</v>
+      </c>
+      <c r="D459" s="1">
+        <f t="shared" si="475"/>
+        <v>30</v>
+      </c>
+      <c r="E459" s="1">
+        <v>3</v>
+      </c>
+      <c r="F459" s="1">
+        <v>0</v>
+      </c>
+      <c r="G459" s="1">
+        <v>326</v>
+      </c>
+      <c r="H459" s="1">
+        <v>13168</v>
+      </c>
+      <c r="I459" s="4">
+        <f t="shared" si="476"/>
+        <v>4</v>
+      </c>
+      <c r="J459" s="4">
+        <f t="shared" si="477"/>
+        <v>6</v>
+      </c>
+      <c r="K459" s="4">
+        <f t="shared" si="478"/>
+        <v>0</v>
+      </c>
+      <c r="L459" s="4">
+        <f t="shared" si="479"/>
+        <v>0</v>
+      </c>
+      <c r="M459" s="1">
+        <f t="shared" si="480"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21151,15 +22591,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -21171,7 +22611,7 @@
     <col min="11" max="18" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21203,7 +22643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44390</v>
       </c>
@@ -21235,7 +22675,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44391</v>
       </c>
@@ -21267,7 +22707,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44392</v>
       </c>
@@ -21299,7 +22739,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44393</v>
       </c>
@@ -21331,7 +22771,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44394</v>
       </c>
@@ -21363,7 +22803,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44395</v>
       </c>
@@ -21395,7 +22835,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44396</v>
       </c>
@@ -21428,11 +22868,967 @@
       </c>
       <c r="L8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44397</v>
+      </c>
+      <c r="B9" s="1">
+        <v>529</v>
+      </c>
+      <c r="C9" s="1">
+        <v>32845</v>
+      </c>
+      <c r="D9" s="1">
+        <v>122</v>
+      </c>
+      <c r="E9" s="1">
+        <v>13040</v>
+      </c>
+      <c r="F9" s="1">
+        <v>19683</v>
+      </c>
+      <c r="G9" s="1">
+        <v>13000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44398</v>
+      </c>
+      <c r="B10" s="1">
+        <v>523</v>
+      </c>
+      <c r="C10" s="1">
+        <v>32902</v>
+      </c>
+      <c r="D10" s="1">
+        <v>147</v>
+      </c>
+      <c r="E10" s="1">
+        <v>13049</v>
+      </c>
+      <c r="F10" s="1">
+        <v>19705</v>
+      </c>
+      <c r="G10" s="1">
+        <v>13009</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>323</v>
+      </c>
       <c r="K10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G13"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44399</v>
+      </c>
+      <c r="B11" s="1">
+        <v>470</v>
+      </c>
+      <c r="C11" s="1">
+        <v>32950</v>
+      </c>
+      <c r="D11" s="1">
+        <v>136</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13051</v>
+      </c>
+      <c r="F11" s="1">
+        <v>19763</v>
+      </c>
+      <c r="G11" s="1">
+        <v>13018</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>323</v>
+      </c>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44400</v>
+      </c>
+      <c r="B12" s="1">
+        <v>436</v>
+      </c>
+      <c r="C12" s="1">
+        <v>32992</v>
+      </c>
+      <c r="D12" s="1">
+        <v>103</v>
+      </c>
+      <c r="E12" s="1">
+        <v>13058</v>
+      </c>
+      <c r="F12" s="1">
+        <v>19831</v>
+      </c>
+      <c r="G12" s="1">
+        <v>13028</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44401</v>
+      </c>
+      <c r="B13" s="1">
+        <v>436</v>
+      </c>
+      <c r="C13" s="1">
+        <v>32992</v>
+      </c>
+      <c r="D13" s="1">
+        <v>103</v>
+      </c>
+      <c r="E13" s="1">
+        <v>13058</v>
+      </c>
+      <c r="F13" s="1">
+        <v>19831</v>
+      </c>
+      <c r="G13" s="1">
+        <v>13028</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44402</v>
+      </c>
+      <c r="B14" s="1">
+        <v>436</v>
+      </c>
+      <c r="C14" s="1">
+        <v>32992</v>
+      </c>
+      <c r="D14" s="1">
+        <v>103</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13058</v>
+      </c>
+      <c r="F14" s="1">
+        <v>19831</v>
+      </c>
+      <c r="G14" s="1">
+        <v>13028</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44403</v>
+      </c>
+      <c r="B15" s="1">
+        <v>477</v>
+      </c>
+      <c r="C15" s="1">
+        <v>33087</v>
+      </c>
+      <c r="D15" s="1">
+        <v>86</v>
+      </c>
+      <c r="E15" s="1">
+        <v>13067</v>
+      </c>
+      <c r="F15" s="1">
+        <v>19934</v>
+      </c>
+      <c r="G15" s="1">
+        <v>13040</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44404</v>
+      </c>
+      <c r="B16" s="1">
+        <v>472</v>
+      </c>
+      <c r="C16" s="1">
+        <v>33167</v>
+      </c>
+      <c r="D16" s="1">
+        <v>155</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13069</v>
+      </c>
+      <c r="F16" s="1">
+        <v>19934</v>
+      </c>
+      <c r="G16" s="1">
+        <v>13041</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44405</v>
+      </c>
+      <c r="B17" s="1">
+        <v>468</v>
+      </c>
+      <c r="C17" s="1">
+        <v>33217</v>
+      </c>
+      <c r="D17" s="1">
+        <v>168</v>
+      </c>
+      <c r="E17" s="1">
+        <v>13070</v>
+      </c>
+      <c r="F17" s="1">
+        <v>19979</v>
+      </c>
+      <c r="G17" s="1">
+        <v>13044</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44406</v>
+      </c>
+      <c r="B18" s="1">
+        <v>442</v>
+      </c>
+      <c r="C18" s="1">
+        <v>33258</v>
+      </c>
+      <c r="D18" s="1">
+        <v>117</v>
+      </c>
+      <c r="E18" s="1">
+        <v>13077</v>
+      </c>
+      <c r="F18" s="1">
+        <v>20064</v>
+      </c>
+      <c r="G18" s="1">
+        <v>13048</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44407</v>
+      </c>
+      <c r="B19" s="1">
+        <v>348</v>
+      </c>
+      <c r="C19" s="1">
+        <v>33303</v>
+      </c>
+      <c r="D19" s="1">
+        <v>71</v>
+      </c>
+      <c r="E19" s="1">
+        <v>13084</v>
+      </c>
+      <c r="F19" s="1">
+        <v>20148</v>
+      </c>
+      <c r="G19" s="1">
+        <v>13051</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44408</v>
+      </c>
+      <c r="B20" s="1">
+        <v>348</v>
+      </c>
+      <c r="C20" s="1">
+        <v>33303</v>
+      </c>
+      <c r="D20" s="1">
+        <v>71</v>
+      </c>
+      <c r="E20" s="1">
+        <v>13084</v>
+      </c>
+      <c r="F20" s="1">
+        <v>20148</v>
+      </c>
+      <c r="G20" s="1">
+        <v>13051</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B21" s="1">
+        <v>348</v>
+      </c>
+      <c r="C21" s="1">
+        <v>33303</v>
+      </c>
+      <c r="D21" s="1">
+        <v>71</v>
+      </c>
+      <c r="E21" s="1">
+        <v>13084</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20148</v>
+      </c>
+      <c r="G21" s="1">
+        <v>13051</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44410</v>
+      </c>
+      <c r="B22" s="1">
+        <v>453</v>
+      </c>
+      <c r="C22" s="1">
+        <v>33382</v>
+      </c>
+      <c r="D22" s="1">
+        <v>76</v>
+      </c>
+      <c r="E22" s="1">
+        <v>13096</v>
+      </c>
+      <c r="F22" s="1">
+        <v>20208</v>
+      </c>
+      <c r="G22" s="1">
+        <v>13053</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44411</v>
+      </c>
+      <c r="B23" s="1">
+        <v>474</v>
+      </c>
+      <c r="C23" s="1">
+        <v>33480</v>
+      </c>
+      <c r="D23" s="1">
+        <v>147</v>
+      </c>
+      <c r="E23" s="1">
+        <v>13102</v>
+      </c>
+      <c r="F23" s="1">
+        <v>20231</v>
+      </c>
+      <c r="G23" s="1">
+        <v>13066</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44412</v>
+      </c>
+      <c r="B24" s="1">
+        <v>486</v>
+      </c>
+      <c r="C24" s="1">
+        <v>33524</v>
+      </c>
+      <c r="D24" s="1">
+        <v>174</v>
+      </c>
+      <c r="E24" s="1">
+        <v>13109</v>
+      </c>
+      <c r="F24" s="1">
+        <v>20241</v>
+      </c>
+      <c r="G24" s="1">
+        <v>13074</v>
+      </c>
+      <c r="H24" s="1">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44413</v>
+      </c>
+      <c r="B25" s="1">
+        <v>464</v>
+      </c>
+      <c r="C25" s="1">
+        <v>33569</v>
+      </c>
+      <c r="D25" s="1">
+        <v>118</v>
+      </c>
+      <c r="E25" s="1">
+        <v>13130</v>
+      </c>
+      <c r="F25" s="1">
+        <v>20321</v>
+      </c>
+      <c r="G25" s="1">
+        <v>13079</v>
+      </c>
+      <c r="H25" s="1">
+        <v>6</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44414</v>
+      </c>
+      <c r="B26" s="1">
+        <v>402</v>
+      </c>
+      <c r="C26" s="1">
+        <v>33657</v>
+      </c>
+      <c r="D26" s="1">
+        <v>158</v>
+      </c>
+      <c r="E26" s="1">
+        <v>13136</v>
+      </c>
+      <c r="F26" s="1">
+        <v>20363</v>
+      </c>
+      <c r="G26" s="1">
+        <v>13088</v>
+      </c>
+      <c r="H26" s="1">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44415</v>
+      </c>
+      <c r="B27" s="1">
+        <v>402</v>
+      </c>
+      <c r="C27" s="1">
+        <v>33657</v>
+      </c>
+      <c r="D27" s="1">
+        <v>158</v>
+      </c>
+      <c r="E27" s="1">
+        <v>13136</v>
+      </c>
+      <c r="F27" s="1">
+        <v>20363</v>
+      </c>
+      <c r="G27" s="1">
+        <v>13088</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>44416</v>
+      </c>
+      <c r="B28" s="1">
+        <v>402</v>
+      </c>
+      <c r="C28" s="1">
+        <v>33657</v>
+      </c>
+      <c r="D28" s="1">
+        <v>158</v>
+      </c>
+      <c r="E28" s="1">
+        <v>13136</v>
+      </c>
+      <c r="F28" s="1">
+        <v>20363</v>
+      </c>
+      <c r="G28" s="1">
+        <v>13088</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44417</v>
+      </c>
+      <c r="B29" s="1">
+        <v>547</v>
+      </c>
+      <c r="C29" s="1">
+        <v>33736</v>
+      </c>
+      <c r="D29" s="1">
+        <v>78</v>
+      </c>
+      <c r="E29" s="1">
+        <v>13156</v>
+      </c>
+      <c r="F29" s="1">
+        <v>20502</v>
+      </c>
+      <c r="G29" s="1">
+        <v>13100</v>
+      </c>
+      <c r="H29" s="1">
+        <v>4</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>44418</v>
+      </c>
+      <c r="B30" s="1">
+        <v>547</v>
+      </c>
+      <c r="C30" s="1">
+        <v>33822</v>
+      </c>
+      <c r="D30" s="1">
+        <v>118</v>
+      </c>
+      <c r="E30" s="1">
+        <v>13160</v>
+      </c>
+      <c r="F30" s="1">
+        <v>20544</v>
+      </c>
+      <c r="G30" s="1">
+        <v>13110</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>44419</v>
+      </c>
+      <c r="B31" s="1">
+        <v>631</v>
+      </c>
+      <c r="C31" s="1">
+        <v>33884</v>
+      </c>
+      <c r="D31" s="1">
+        <v>146</v>
+      </c>
+      <c r="E31" s="1">
+        <v>13162</v>
+      </c>
+      <c r="F31" s="1">
+        <v>20576</v>
+      </c>
+      <c r="G31" s="1">
+        <v>13112</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>44420</v>
+      </c>
+      <c r="B32" s="1">
+        <v>590</v>
+      </c>
+      <c r="C32" s="1">
+        <v>33937</v>
+      </c>
+      <c r="D32" s="1">
+        <v>153</v>
+      </c>
+      <c r="E32" s="1">
+        <v>13168</v>
+      </c>
+      <c r="F32" s="1">
+        <v>20616</v>
+      </c>
+      <c r="G32" s="1">
+        <v>13134</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>44421</v>
+      </c>
+      <c r="B33" s="1">
+        <v>601</v>
+      </c>
+      <c r="C33" s="1">
+        <v>33994</v>
+      </c>
+      <c r="D33" s="1">
+        <v>129</v>
+      </c>
+      <c r="E33" s="1">
+        <v>13182</v>
+      </c>
+      <c r="F33" s="1">
+        <v>20683</v>
+      </c>
+      <c r="G33" s="1">
+        <v>13137</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44422</v>
+      </c>
+      <c r="B34" s="1">
+        <v>601</v>
+      </c>
+      <c r="C34" s="1">
+        <v>33994</v>
+      </c>
+      <c r="D34" s="1">
+        <v>129</v>
+      </c>
+      <c r="E34" s="1">
+        <v>13182</v>
+      </c>
+      <c r="F34" s="1">
+        <v>20683</v>
+      </c>
+      <c r="G34" s="1">
+        <v>13137</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B35" s="1">
+        <v>601</v>
+      </c>
+      <c r="C35" s="1">
+        <v>33994</v>
+      </c>
+      <c r="D35" s="1">
+        <v>129</v>
+      </c>
+      <c r="E35" s="1">
+        <v>13182</v>
+      </c>
+      <c r="F35" s="1">
+        <v>20683</v>
+      </c>
+      <c r="G35" s="1">
+        <v>13137</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>44424</v>
+      </c>
+      <c r="B36" s="1">
+        <v>609</v>
+      </c>
+      <c r="C36" s="1">
+        <v>34072</v>
+      </c>
+      <c r="D36" s="1">
+        <v>73</v>
+      </c>
+      <c r="E36" s="1">
+        <v>13194</v>
+      </c>
+      <c r="F36" s="1">
+        <v>20805</v>
+      </c>
+      <c r="G36" s="1">
+        <v>13154</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>44425</v>
+      </c>
+      <c r="B37" s="1">
+        <v>635</v>
+      </c>
+      <c r="C37" s="1">
+        <v>34162</v>
+      </c>
+      <c r="D37" s="1">
+        <v>153</v>
+      </c>
+      <c r="E37" s="1">
+        <v>13194</v>
+      </c>
+      <c r="F37" s="1">
+        <v>20815</v>
+      </c>
+      <c r="G37" s="1">
+        <v>13162</v>
+      </c>
+      <c r="H37" s="1">
+        <v>3</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B38" s="1">
+        <v>638</v>
+      </c>
+      <c r="C38" s="1">
+        <v>34226</v>
+      </c>
+      <c r="D38" s="1">
+        <v>176</v>
+      </c>
+      <c r="E38" s="1">
+        <v>13198</v>
+      </c>
+      <c r="F38" s="1">
+        <v>20852</v>
+      </c>
+      <c r="G38" s="1">
+        <v>13168</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>326</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/COVID SAP.xlsx
+++ b/COVID SAP.xlsx
@@ -494,11 +494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M629"/>
+  <dimension ref="A1:M668"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A604" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H628" sqref="H628:H629"/>
+      <pane ySplit="1" topLeftCell="A643" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G671" sqref="G671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30698,6 +30698,1878 @@
         <v>0</v>
       </c>
     </row>
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A630" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B630" s="1">
+        <v>16280</v>
+      </c>
+      <c r="C630" s="1">
+        <f t="shared" ref="C630:C640" si="598">B630-H630-G630</f>
+        <v>695</v>
+      </c>
+      <c r="D630" s="1">
+        <f t="shared" ref="D630:D640" si="599">B630-H630</f>
+        <v>1041</v>
+      </c>
+      <c r="E630" s="1">
+        <v>8</v>
+      </c>
+      <c r="F630" s="1">
+        <v>0</v>
+      </c>
+      <c r="G630" s="1">
+        <v>346</v>
+      </c>
+      <c r="H630" s="1">
+        <v>15239</v>
+      </c>
+      <c r="I630" s="4">
+        <f t="shared" ref="I630:I640" si="600">B630-B629</f>
+        <v>0</v>
+      </c>
+      <c r="J630" s="4">
+        <f t="shared" ref="J630:J640" si="601">H630-H629</f>
+        <v>0</v>
+      </c>
+      <c r="K630" s="4">
+        <f t="shared" ref="K630:K640" si="602">G630-G629</f>
+        <v>0</v>
+      </c>
+      <c r="L630" s="4">
+        <f t="shared" ref="L630:L640" si="603">E630-E629</f>
+        <v>0</v>
+      </c>
+      <c r="M630" s="1">
+        <f t="shared" ref="M630:M640" si="604">F630-F629</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A631" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B631" s="1">
+        <v>16280</v>
+      </c>
+      <c r="C631" s="1">
+        <f t="shared" si="598"/>
+        <v>695</v>
+      </c>
+      <c r="D631" s="1">
+        <f t="shared" si="599"/>
+        <v>1041</v>
+      </c>
+      <c r="E631" s="1">
+        <v>8</v>
+      </c>
+      <c r="F631" s="1">
+        <v>0</v>
+      </c>
+      <c r="G631" s="1">
+        <v>346</v>
+      </c>
+      <c r="H631" s="1">
+        <v>15239</v>
+      </c>
+      <c r="I631" s="4">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="J631" s="4">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="K631" s="4">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="L631" s="4">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="M631" s="1">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A632" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B632" s="1">
+        <v>16360</v>
+      </c>
+      <c r="C632" s="1">
+        <f t="shared" si="598"/>
+        <v>734</v>
+      </c>
+      <c r="D632" s="1">
+        <f t="shared" si="599"/>
+        <v>1080</v>
+      </c>
+      <c r="E632" s="1">
+        <v>7</v>
+      </c>
+      <c r="F632" s="1">
+        <v>0</v>
+      </c>
+      <c r="G632" s="1">
+        <v>346</v>
+      </c>
+      <c r="H632" s="1">
+        <v>15280</v>
+      </c>
+      <c r="I632" s="4">
+        <f t="shared" si="600"/>
+        <v>80</v>
+      </c>
+      <c r="J632" s="4">
+        <f t="shared" si="601"/>
+        <v>41</v>
+      </c>
+      <c r="K632" s="4">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="L632" s="4">
+        <f t="shared" si="603"/>
+        <v>-1</v>
+      </c>
+      <c r="M632" s="1">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A633" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B633" s="1">
+        <v>16523</v>
+      </c>
+      <c r="C633" s="1">
+        <f t="shared" si="598"/>
+        <v>663</v>
+      </c>
+      <c r="D633" s="1">
+        <f t="shared" si="599"/>
+        <v>1009</v>
+      </c>
+      <c r="E633" s="1">
+        <v>6</v>
+      </c>
+      <c r="F633" s="1">
+        <v>0</v>
+      </c>
+      <c r="G633" s="1">
+        <v>346</v>
+      </c>
+      <c r="H633" s="1">
+        <v>15514</v>
+      </c>
+      <c r="I633" s="4">
+        <f t="shared" si="600"/>
+        <v>163</v>
+      </c>
+      <c r="J633" s="4">
+        <f t="shared" si="601"/>
+        <v>234</v>
+      </c>
+      <c r="K633" s="4">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="L633" s="4">
+        <f t="shared" si="603"/>
+        <v>-1</v>
+      </c>
+      <c r="M633" s="1">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A634" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B634" s="1">
+        <v>16684</v>
+      </c>
+      <c r="C634" s="1">
+        <f t="shared" si="598"/>
+        <v>426</v>
+      </c>
+      <c r="D634" s="1">
+        <f t="shared" si="599"/>
+        <v>773</v>
+      </c>
+      <c r="E634" s="1">
+        <v>6</v>
+      </c>
+      <c r="F634" s="1">
+        <v>0</v>
+      </c>
+      <c r="G634" s="1">
+        <v>347</v>
+      </c>
+      <c r="H634" s="1">
+        <v>15911</v>
+      </c>
+      <c r="I634" s="4">
+        <f t="shared" si="600"/>
+        <v>161</v>
+      </c>
+      <c r="J634" s="4">
+        <f t="shared" si="601"/>
+        <v>397</v>
+      </c>
+      <c r="K634" s="4">
+        <f t="shared" si="602"/>
+        <v>1</v>
+      </c>
+      <c r="L634" s="4">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="M634" s="1">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A635" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B635" s="1">
+        <v>16770</v>
+      </c>
+      <c r="C635" s="1">
+        <f t="shared" si="598"/>
+        <v>200</v>
+      </c>
+      <c r="D635" s="1">
+        <f t="shared" si="599"/>
+        <v>547</v>
+      </c>
+      <c r="E635" s="1">
+        <v>7</v>
+      </c>
+      <c r="F635" s="1">
+        <v>0</v>
+      </c>
+      <c r="G635" s="1">
+        <v>347</v>
+      </c>
+      <c r="H635" s="1">
+        <v>16223</v>
+      </c>
+      <c r="I635" s="4">
+        <f t="shared" si="600"/>
+        <v>86</v>
+      </c>
+      <c r="J635" s="4">
+        <f t="shared" si="601"/>
+        <v>312</v>
+      </c>
+      <c r="K635" s="4">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="L635" s="4">
+        <f t="shared" si="603"/>
+        <v>1</v>
+      </c>
+      <c r="M635" s="1">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A636" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B636" s="1">
+        <v>16894</v>
+      </c>
+      <c r="C636" s="1">
+        <f t="shared" si="598"/>
+        <v>143</v>
+      </c>
+      <c r="D636" s="1">
+        <f t="shared" si="599"/>
+        <v>492</v>
+      </c>
+      <c r="E636" s="1">
+        <v>6</v>
+      </c>
+      <c r="F636" s="1">
+        <v>0</v>
+      </c>
+      <c r="G636" s="1">
+        <v>349</v>
+      </c>
+      <c r="H636" s="1">
+        <v>16402</v>
+      </c>
+      <c r="I636" s="4">
+        <f t="shared" si="600"/>
+        <v>124</v>
+      </c>
+      <c r="J636" s="4">
+        <f t="shared" si="601"/>
+        <v>179</v>
+      </c>
+      <c r="K636" s="4">
+        <f t="shared" si="602"/>
+        <v>2</v>
+      </c>
+      <c r="L636" s="4">
+        <f t="shared" si="603"/>
+        <v>-1</v>
+      </c>
+      <c r="M636" s="1">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A637" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B637" s="1">
+        <v>16894</v>
+      </c>
+      <c r="C637" s="1">
+        <f t="shared" si="598"/>
+        <v>143</v>
+      </c>
+      <c r="D637" s="1">
+        <f t="shared" si="599"/>
+        <v>492</v>
+      </c>
+      <c r="E637" s="1">
+        <v>5</v>
+      </c>
+      <c r="F637" s="1">
+        <v>0</v>
+      </c>
+      <c r="G637" s="1">
+        <v>349</v>
+      </c>
+      <c r="H637" s="1">
+        <v>16402</v>
+      </c>
+      <c r="I637" s="4">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="J637" s="4">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="K637" s="4">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="L637" s="4">
+        <f t="shared" si="603"/>
+        <v>-1</v>
+      </c>
+      <c r="M637" s="1">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A638" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B638" s="1">
+        <v>16894</v>
+      </c>
+      <c r="C638" s="1">
+        <f t="shared" si="598"/>
+        <v>143</v>
+      </c>
+      <c r="D638" s="1">
+        <f t="shared" si="599"/>
+        <v>492</v>
+      </c>
+      <c r="E638" s="1">
+        <v>5</v>
+      </c>
+      <c r="F638" s="1">
+        <v>0</v>
+      </c>
+      <c r="G638" s="1">
+        <v>349</v>
+      </c>
+      <c r="H638" s="1">
+        <v>16402</v>
+      </c>
+      <c r="I638" s="4">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="J638" s="4">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="K638" s="4">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="L638" s="4">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="M638" s="1">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A639" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B639" s="1">
+        <v>16959</v>
+      </c>
+      <c r="C639" s="1">
+        <f t="shared" si="598"/>
+        <v>-255</v>
+      </c>
+      <c r="D639" s="1">
+        <f t="shared" si="599"/>
+        <v>94</v>
+      </c>
+      <c r="E639" s="1">
+        <v>5</v>
+      </c>
+      <c r="F639" s="1">
+        <v>0</v>
+      </c>
+      <c r="G639" s="1">
+        <v>349</v>
+      </c>
+      <c r="H639" s="1">
+        <v>16865</v>
+      </c>
+      <c r="I639" s="4">
+        <f t="shared" si="600"/>
+        <v>65</v>
+      </c>
+      <c r="J639" s="4">
+        <f t="shared" si="601"/>
+        <v>463</v>
+      </c>
+      <c r="K639" s="4">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="L639" s="4">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="M639" s="1">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A640" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B640" s="1">
+        <v>17107</v>
+      </c>
+      <c r="C640" s="1">
+        <f t="shared" si="598"/>
+        <v>-185</v>
+      </c>
+      <c r="D640" s="1">
+        <f t="shared" si="599"/>
+        <v>164</v>
+      </c>
+      <c r="E640" s="1">
+        <v>6</v>
+      </c>
+      <c r="F640" s="1">
+        <v>0</v>
+      </c>
+      <c r="G640" s="1">
+        <v>349</v>
+      </c>
+      <c r="H640" s="1">
+        <v>16943</v>
+      </c>
+      <c r="I640" s="4">
+        <f t="shared" si="600"/>
+        <v>148</v>
+      </c>
+      <c r="J640" s="4">
+        <f t="shared" si="601"/>
+        <v>78</v>
+      </c>
+      <c r="K640" s="4">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="L640" s="4">
+        <f t="shared" si="603"/>
+        <v>1</v>
+      </c>
+      <c r="M640" s="1">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A641" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B641" s="1">
+        <v>17199</v>
+      </c>
+      <c r="C641" s="1">
+        <f t="shared" ref="C641:C643" si="605">B641-H641-G641</f>
+        <v>-152</v>
+      </c>
+      <c r="D641" s="1">
+        <f t="shared" ref="D641:D643" si="606">B641-H641</f>
+        <v>197</v>
+      </c>
+      <c r="E641" s="1">
+        <v>6</v>
+      </c>
+      <c r="F641" s="1">
+        <v>0</v>
+      </c>
+      <c r="G641" s="1">
+        <v>349</v>
+      </c>
+      <c r="H641" s="1">
+        <v>17002</v>
+      </c>
+      <c r="I641" s="4">
+        <f t="shared" ref="I641:I643" si="607">B641-B640</f>
+        <v>92</v>
+      </c>
+      <c r="J641" s="4">
+        <f t="shared" ref="J641:J643" si="608">H641-H640</f>
+        <v>59</v>
+      </c>
+      <c r="K641" s="4">
+        <f t="shared" ref="K641:K643" si="609">G641-G640</f>
+        <v>0</v>
+      </c>
+      <c r="L641" s="4">
+        <f t="shared" ref="L641:L643" si="610">E641-E640</f>
+        <v>0</v>
+      </c>
+      <c r="M641" s="1">
+        <f t="shared" ref="M641:M643" si="611">F641-F640</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A642" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B642" s="1">
+        <v>17276</v>
+      </c>
+      <c r="C642" s="1">
+        <f t="shared" si="605"/>
+        <v>-154</v>
+      </c>
+      <c r="D642" s="1">
+        <f t="shared" si="606"/>
+        <v>196</v>
+      </c>
+      <c r="E642" s="1">
+        <v>6</v>
+      </c>
+      <c r="F642" s="1">
+        <v>0</v>
+      </c>
+      <c r="G642" s="1">
+        <v>350</v>
+      </c>
+      <c r="H642" s="1">
+        <v>17080</v>
+      </c>
+      <c r="I642" s="4">
+        <f t="shared" si="607"/>
+        <v>77</v>
+      </c>
+      <c r="J642" s="4">
+        <f t="shared" si="608"/>
+        <v>78</v>
+      </c>
+      <c r="K642" s="4">
+        <f t="shared" si="609"/>
+        <v>1</v>
+      </c>
+      <c r="L642" s="4">
+        <f t="shared" si="610"/>
+        <v>0</v>
+      </c>
+      <c r="M642" s="1">
+        <f t="shared" si="611"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A643" s="2">
+        <v>44610</v>
+      </c>
+      <c r="B643" s="1">
+        <v>17378</v>
+      </c>
+      <c r="C643" s="1">
+        <f t="shared" si="605"/>
+        <v>-137</v>
+      </c>
+      <c r="D643" s="1">
+        <f t="shared" si="606"/>
+        <v>213</v>
+      </c>
+      <c r="E643" s="1">
+        <v>4</v>
+      </c>
+      <c r="F643" s="1">
+        <v>0</v>
+      </c>
+      <c r="G643" s="1">
+        <v>350</v>
+      </c>
+      <c r="H643" s="1">
+        <v>17165</v>
+      </c>
+      <c r="I643" s="4">
+        <f t="shared" si="607"/>
+        <v>102</v>
+      </c>
+      <c r="J643" s="4">
+        <f t="shared" si="608"/>
+        <v>85</v>
+      </c>
+      <c r="K643" s="4">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="L643" s="4">
+        <f t="shared" si="610"/>
+        <v>-2</v>
+      </c>
+      <c r="M643" s="1">
+        <f t="shared" si="611"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A644" s="2">
+        <v>44611</v>
+      </c>
+      <c r="B644" s="1">
+        <v>17378</v>
+      </c>
+      <c r="C644" s="1">
+        <f t="shared" ref="C644:C656" si="612">B644-H644-G644</f>
+        <v>-137</v>
+      </c>
+      <c r="D644" s="1">
+        <f t="shared" ref="D644:D656" si="613">B644-H644</f>
+        <v>213</v>
+      </c>
+      <c r="E644" s="1">
+        <v>5</v>
+      </c>
+      <c r="F644" s="1">
+        <v>0</v>
+      </c>
+      <c r="G644" s="1">
+        <v>350</v>
+      </c>
+      <c r="H644" s="1">
+        <v>17165</v>
+      </c>
+      <c r="I644" s="4">
+        <f t="shared" ref="I644:I656" si="614">B644-B643</f>
+        <v>0</v>
+      </c>
+      <c r="J644" s="4">
+        <f t="shared" ref="J644:J656" si="615">H644-H643</f>
+        <v>0</v>
+      </c>
+      <c r="K644" s="4">
+        <f t="shared" ref="K644:K656" si="616">G644-G643</f>
+        <v>0</v>
+      </c>
+      <c r="L644" s="4">
+        <f t="shared" ref="L644:L656" si="617">E644-E643</f>
+        <v>1</v>
+      </c>
+      <c r="M644" s="1">
+        <f t="shared" ref="M644:M656" si="618">F644-F643</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A645" s="2">
+        <v>44612</v>
+      </c>
+      <c r="B645" s="1">
+        <v>17378</v>
+      </c>
+      <c r="C645" s="1">
+        <f t="shared" si="612"/>
+        <v>-137</v>
+      </c>
+      <c r="D645" s="1">
+        <f t="shared" si="613"/>
+        <v>213</v>
+      </c>
+      <c r="E645" s="1">
+        <v>5</v>
+      </c>
+      <c r="F645" s="1">
+        <v>0</v>
+      </c>
+      <c r="G645" s="1">
+        <v>350</v>
+      </c>
+      <c r="H645" s="1">
+        <v>17165</v>
+      </c>
+      <c r="I645" s="4">
+        <f t="shared" si="614"/>
+        <v>0</v>
+      </c>
+      <c r="J645" s="4">
+        <f t="shared" si="615"/>
+        <v>0</v>
+      </c>
+      <c r="K645" s="4">
+        <f t="shared" si="616"/>
+        <v>0</v>
+      </c>
+      <c r="L645" s="4">
+        <f t="shared" si="617"/>
+        <v>0</v>
+      </c>
+      <c r="M645" s="1">
+        <f t="shared" si="618"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A646" s="2">
+        <v>44613</v>
+      </c>
+      <c r="B646" s="1">
+        <v>17468</v>
+      </c>
+      <c r="C646" s="1">
+        <f t="shared" si="612"/>
+        <v>-248</v>
+      </c>
+      <c r="D646" s="1">
+        <f t="shared" si="613"/>
+        <v>102</v>
+      </c>
+      <c r="E646" s="1">
+        <v>6</v>
+      </c>
+      <c r="F646" s="1">
+        <v>0</v>
+      </c>
+      <c r="G646" s="1">
+        <v>350</v>
+      </c>
+      <c r="H646" s="1">
+        <v>17366</v>
+      </c>
+      <c r="I646" s="4">
+        <f t="shared" si="614"/>
+        <v>90</v>
+      </c>
+      <c r="J646" s="4">
+        <f t="shared" si="615"/>
+        <v>201</v>
+      </c>
+      <c r="K646" s="4">
+        <f t="shared" si="616"/>
+        <v>0</v>
+      </c>
+      <c r="L646" s="4">
+        <f t="shared" si="617"/>
+        <v>1</v>
+      </c>
+      <c r="M646" s="1">
+        <f t="shared" si="618"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A647" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B647" s="1">
+        <v>17572</v>
+      </c>
+      <c r="C647" s="1">
+        <f t="shared" si="612"/>
+        <v>-312</v>
+      </c>
+      <c r="D647" s="1">
+        <f t="shared" si="613"/>
+        <v>40</v>
+      </c>
+      <c r="E647" s="1">
+        <v>3</v>
+      </c>
+      <c r="F647" s="1">
+        <v>0</v>
+      </c>
+      <c r="G647" s="1">
+        <v>352</v>
+      </c>
+      <c r="H647" s="1">
+        <v>17532</v>
+      </c>
+      <c r="I647" s="4">
+        <f t="shared" si="614"/>
+        <v>104</v>
+      </c>
+      <c r="J647" s="4">
+        <f t="shared" si="615"/>
+        <v>166</v>
+      </c>
+      <c r="K647" s="4">
+        <f t="shared" si="616"/>
+        <v>2</v>
+      </c>
+      <c r="L647" s="4">
+        <f t="shared" si="617"/>
+        <v>-3</v>
+      </c>
+      <c r="M647" s="1">
+        <f t="shared" si="618"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A648" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B648" s="1">
+        <v>17715</v>
+      </c>
+      <c r="C648" s="1">
+        <f t="shared" si="612"/>
+        <v>-304</v>
+      </c>
+      <c r="D648" s="1">
+        <f t="shared" si="613"/>
+        <v>48</v>
+      </c>
+      <c r="E648" s="1">
+        <v>4</v>
+      </c>
+      <c r="F648" s="1">
+        <v>0</v>
+      </c>
+      <c r="G648" s="1">
+        <v>352</v>
+      </c>
+      <c r="H648" s="1">
+        <v>17667</v>
+      </c>
+      <c r="I648" s="4">
+        <f t="shared" si="614"/>
+        <v>143</v>
+      </c>
+      <c r="J648" s="4">
+        <f t="shared" si="615"/>
+        <v>135</v>
+      </c>
+      <c r="K648" s="4">
+        <f t="shared" si="616"/>
+        <v>0</v>
+      </c>
+      <c r="L648" s="4">
+        <f t="shared" si="617"/>
+        <v>1</v>
+      </c>
+      <c r="M648" s="1">
+        <f t="shared" si="618"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A649" s="2">
+        <v>44616</v>
+      </c>
+      <c r="B649" s="1">
+        <v>17831</v>
+      </c>
+      <c r="C649" s="1">
+        <f t="shared" si="612"/>
+        <v>-296</v>
+      </c>
+      <c r="D649" s="1">
+        <f t="shared" si="613"/>
+        <v>56</v>
+      </c>
+      <c r="E649" s="1">
+        <v>5</v>
+      </c>
+      <c r="F649" s="1">
+        <v>0</v>
+      </c>
+      <c r="G649" s="1">
+        <v>352</v>
+      </c>
+      <c r="H649" s="1">
+        <v>17775</v>
+      </c>
+      <c r="I649" s="4">
+        <f t="shared" si="614"/>
+        <v>116</v>
+      </c>
+      <c r="J649" s="4">
+        <f t="shared" si="615"/>
+        <v>108</v>
+      </c>
+      <c r="K649" s="4">
+        <f t="shared" si="616"/>
+        <v>0</v>
+      </c>
+      <c r="L649" s="4">
+        <f t="shared" si="617"/>
+        <v>1</v>
+      </c>
+      <c r="M649" s="1">
+        <f t="shared" si="618"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A650" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B650" s="1">
+        <v>17900</v>
+      </c>
+      <c r="C650" s="1">
+        <f t="shared" si="612"/>
+        <v>-323</v>
+      </c>
+      <c r="D650" s="1">
+        <f t="shared" si="613"/>
+        <v>30</v>
+      </c>
+      <c r="E650" s="1">
+        <v>5</v>
+      </c>
+      <c r="F650" s="1">
+        <v>0</v>
+      </c>
+      <c r="G650" s="1">
+        <v>353</v>
+      </c>
+      <c r="H650" s="1">
+        <v>17870</v>
+      </c>
+      <c r="I650" s="4">
+        <f t="shared" si="614"/>
+        <v>69</v>
+      </c>
+      <c r="J650" s="4">
+        <f t="shared" si="615"/>
+        <v>95</v>
+      </c>
+      <c r="K650" s="4">
+        <f t="shared" si="616"/>
+        <v>1</v>
+      </c>
+      <c r="L650" s="4">
+        <f t="shared" si="617"/>
+        <v>0</v>
+      </c>
+      <c r="M650" s="1">
+        <f t="shared" si="618"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A651" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B651" s="1">
+        <v>17900</v>
+      </c>
+      <c r="C651" s="1">
+        <f t="shared" si="612"/>
+        <v>-323</v>
+      </c>
+      <c r="D651" s="1">
+        <f t="shared" si="613"/>
+        <v>30</v>
+      </c>
+      <c r="E651" s="1">
+        <v>5</v>
+      </c>
+      <c r="F651" s="1">
+        <v>0</v>
+      </c>
+      <c r="G651" s="1">
+        <v>353</v>
+      </c>
+      <c r="H651" s="1">
+        <v>17870</v>
+      </c>
+      <c r="I651" s="4">
+        <f t="shared" si="614"/>
+        <v>0</v>
+      </c>
+      <c r="J651" s="4">
+        <f t="shared" si="615"/>
+        <v>0</v>
+      </c>
+      <c r="K651" s="4">
+        <f t="shared" si="616"/>
+        <v>0</v>
+      </c>
+      <c r="L651" s="4">
+        <f t="shared" si="617"/>
+        <v>0</v>
+      </c>
+      <c r="M651" s="1">
+        <f t="shared" si="618"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A652" s="2">
+        <v>44619</v>
+      </c>
+      <c r="B652" s="1">
+        <v>17900</v>
+      </c>
+      <c r="C652" s="1">
+        <f t="shared" si="612"/>
+        <v>-324</v>
+      </c>
+      <c r="D652" s="1">
+        <f t="shared" si="613"/>
+        <v>30</v>
+      </c>
+      <c r="E652" s="1">
+        <v>4</v>
+      </c>
+      <c r="F652" s="1">
+        <v>0</v>
+      </c>
+      <c r="G652" s="1">
+        <v>354</v>
+      </c>
+      <c r="H652" s="1">
+        <v>17870</v>
+      </c>
+      <c r="I652" s="4">
+        <f t="shared" si="614"/>
+        <v>0</v>
+      </c>
+      <c r="J652" s="4">
+        <f t="shared" si="615"/>
+        <v>0</v>
+      </c>
+      <c r="K652" s="4">
+        <f t="shared" si="616"/>
+        <v>1</v>
+      </c>
+      <c r="L652" s="4">
+        <f t="shared" si="617"/>
+        <v>-1</v>
+      </c>
+      <c r="M652" s="1">
+        <f t="shared" si="618"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A653" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B653" s="1">
+        <v>17900</v>
+      </c>
+      <c r="C653" s="1">
+        <f t="shared" si="612"/>
+        <v>-324</v>
+      </c>
+      <c r="D653" s="1">
+        <f t="shared" si="613"/>
+        <v>30</v>
+      </c>
+      <c r="E653" s="1">
+        <v>4</v>
+      </c>
+      <c r="F653" s="1">
+        <v>0</v>
+      </c>
+      <c r="G653" s="1">
+        <v>354</v>
+      </c>
+      <c r="H653" s="1">
+        <v>17870</v>
+      </c>
+      <c r="I653" s="4">
+        <f t="shared" si="614"/>
+        <v>0</v>
+      </c>
+      <c r="J653" s="4">
+        <f t="shared" si="615"/>
+        <v>0</v>
+      </c>
+      <c r="K653" s="4">
+        <f t="shared" si="616"/>
+        <v>0</v>
+      </c>
+      <c r="L653" s="4">
+        <f t="shared" si="617"/>
+        <v>0</v>
+      </c>
+      <c r="M653" s="1">
+        <f t="shared" si="618"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A654" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B654" s="1">
+        <v>17900</v>
+      </c>
+      <c r="C654" s="1">
+        <f t="shared" si="612"/>
+        <v>-326</v>
+      </c>
+      <c r="D654" s="1">
+        <f t="shared" si="613"/>
+        <v>30</v>
+      </c>
+      <c r="E654" s="1">
+        <v>3</v>
+      </c>
+      <c r="F654" s="1">
+        <v>0</v>
+      </c>
+      <c r="G654" s="1">
+        <v>356</v>
+      </c>
+      <c r="H654" s="1">
+        <v>17870</v>
+      </c>
+      <c r="I654" s="4">
+        <f t="shared" si="614"/>
+        <v>0</v>
+      </c>
+      <c r="J654" s="4">
+        <f t="shared" si="615"/>
+        <v>0</v>
+      </c>
+      <c r="K654" s="4">
+        <f t="shared" si="616"/>
+        <v>2</v>
+      </c>
+      <c r="L654" s="4">
+        <f t="shared" si="617"/>
+        <v>-1</v>
+      </c>
+      <c r="M654" s="1">
+        <f t="shared" si="618"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A655" s="2">
+        <v>44622</v>
+      </c>
+      <c r="B655" s="1">
+        <v>18104</v>
+      </c>
+      <c r="C655" s="1">
+        <f t="shared" si="612"/>
+        <v>-342</v>
+      </c>
+      <c r="D655" s="1">
+        <f t="shared" si="613"/>
+        <v>15</v>
+      </c>
+      <c r="E655" s="1">
+        <v>3</v>
+      </c>
+      <c r="F655" s="1">
+        <v>0</v>
+      </c>
+      <c r="G655" s="1">
+        <v>357</v>
+      </c>
+      <c r="H655" s="1">
+        <v>18089</v>
+      </c>
+      <c r="I655" s="4">
+        <f t="shared" si="614"/>
+        <v>204</v>
+      </c>
+      <c r="J655" s="4">
+        <f t="shared" si="615"/>
+        <v>219</v>
+      </c>
+      <c r="K655" s="4">
+        <f t="shared" si="616"/>
+        <v>1</v>
+      </c>
+      <c r="L655" s="4">
+        <f t="shared" si="617"/>
+        <v>0</v>
+      </c>
+      <c r="M655" s="1">
+        <f t="shared" si="618"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A656" s="2">
+        <v>44623</v>
+      </c>
+      <c r="B656" s="1">
+        <v>18291</v>
+      </c>
+      <c r="C656" s="1">
+        <f t="shared" si="612"/>
+        <v>-322</v>
+      </c>
+      <c r="D656" s="1">
+        <f t="shared" si="613"/>
+        <v>36</v>
+      </c>
+      <c r="E656" s="1">
+        <v>2</v>
+      </c>
+      <c r="F656" s="1">
+        <v>0</v>
+      </c>
+      <c r="G656" s="1">
+        <v>358</v>
+      </c>
+      <c r="H656" s="1">
+        <v>18255</v>
+      </c>
+      <c r="I656" s="4">
+        <f t="shared" si="614"/>
+        <v>187</v>
+      </c>
+      <c r="J656" s="4">
+        <f t="shared" si="615"/>
+        <v>166</v>
+      </c>
+      <c r="K656" s="4">
+        <f t="shared" si="616"/>
+        <v>1</v>
+      </c>
+      <c r="L656" s="4">
+        <f t="shared" si="617"/>
+        <v>-1</v>
+      </c>
+      <c r="M656" s="1">
+        <f t="shared" si="618"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A657" s="2">
+        <v>44624</v>
+      </c>
+      <c r="B657" s="1">
+        <v>18375</v>
+      </c>
+      <c r="C657" s="1">
+        <f t="shared" ref="C657:C661" si="619">B657-H657-G657</f>
+        <v>-321</v>
+      </c>
+      <c r="D657" s="1">
+        <f t="shared" ref="D657:D661" si="620">B657-H657</f>
+        <v>37</v>
+      </c>
+      <c r="E657" s="1">
+        <v>2</v>
+      </c>
+      <c r="F657" s="1">
+        <v>0</v>
+      </c>
+      <c r="G657" s="1">
+        <v>358</v>
+      </c>
+      <c r="H657" s="1">
+        <v>18338</v>
+      </c>
+      <c r="I657" s="4">
+        <f t="shared" ref="I657:I661" si="621">B657-B656</f>
+        <v>84</v>
+      </c>
+      <c r="J657" s="4">
+        <f t="shared" ref="J657:J661" si="622">H657-H656</f>
+        <v>83</v>
+      </c>
+      <c r="K657" s="4">
+        <f t="shared" ref="K657:K661" si="623">G657-G656</f>
+        <v>0</v>
+      </c>
+      <c r="L657" s="4">
+        <f t="shared" ref="L657:L661" si="624">E657-E656</f>
+        <v>0</v>
+      </c>
+      <c r="M657" s="1">
+        <f t="shared" ref="M657:M661" si="625">F657-F656</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A658" s="2">
+        <v>44625</v>
+      </c>
+      <c r="B658" s="1">
+        <v>18375</v>
+      </c>
+      <c r="C658" s="1">
+        <f t="shared" si="619"/>
+        <v>-321</v>
+      </c>
+      <c r="D658" s="1">
+        <f t="shared" si="620"/>
+        <v>37</v>
+      </c>
+      <c r="E658" s="1">
+        <v>2</v>
+      </c>
+      <c r="F658" s="1">
+        <v>0</v>
+      </c>
+      <c r="G658" s="1">
+        <v>358</v>
+      </c>
+      <c r="H658" s="1">
+        <v>18338</v>
+      </c>
+      <c r="I658" s="4">
+        <f t="shared" si="621"/>
+        <v>0</v>
+      </c>
+      <c r="J658" s="4">
+        <f t="shared" si="622"/>
+        <v>0</v>
+      </c>
+      <c r="K658" s="4">
+        <f t="shared" si="623"/>
+        <v>0</v>
+      </c>
+      <c r="L658" s="4">
+        <f t="shared" si="624"/>
+        <v>0</v>
+      </c>
+      <c r="M658" s="1">
+        <f t="shared" si="625"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A659" s="2">
+        <v>44626</v>
+      </c>
+      <c r="B659" s="1">
+        <v>18375</v>
+      </c>
+      <c r="C659" s="1">
+        <f t="shared" si="619"/>
+        <v>-322</v>
+      </c>
+      <c r="D659" s="1">
+        <f t="shared" si="620"/>
+        <v>37</v>
+      </c>
+      <c r="E659" s="1">
+        <v>1</v>
+      </c>
+      <c r="F659" s="1">
+        <v>0</v>
+      </c>
+      <c r="G659" s="1">
+        <v>359</v>
+      </c>
+      <c r="H659" s="1">
+        <v>18338</v>
+      </c>
+      <c r="I659" s="4">
+        <f t="shared" si="621"/>
+        <v>0</v>
+      </c>
+      <c r="J659" s="4">
+        <f t="shared" si="622"/>
+        <v>0</v>
+      </c>
+      <c r="K659" s="4">
+        <f t="shared" si="623"/>
+        <v>1</v>
+      </c>
+      <c r="L659" s="4">
+        <f t="shared" si="624"/>
+        <v>-1</v>
+      </c>
+      <c r="M659" s="1">
+        <f t="shared" si="625"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A660" s="2">
+        <v>44627</v>
+      </c>
+      <c r="B660" s="1">
+        <v>18434</v>
+      </c>
+      <c r="C660" s="1">
+        <f t="shared" si="619"/>
+        <v>-330</v>
+      </c>
+      <c r="D660" s="1">
+        <f t="shared" si="620"/>
+        <v>29</v>
+      </c>
+      <c r="E660" s="1">
+        <v>2</v>
+      </c>
+      <c r="F660" s="1">
+        <v>0</v>
+      </c>
+      <c r="G660" s="1">
+        <v>359</v>
+      </c>
+      <c r="H660" s="1">
+        <v>18405</v>
+      </c>
+      <c r="I660" s="4">
+        <f t="shared" si="621"/>
+        <v>59</v>
+      </c>
+      <c r="J660" s="4">
+        <f t="shared" si="622"/>
+        <v>67</v>
+      </c>
+      <c r="K660" s="4">
+        <f t="shared" si="623"/>
+        <v>0</v>
+      </c>
+      <c r="L660" s="4">
+        <f t="shared" si="624"/>
+        <v>1</v>
+      </c>
+      <c r="M660" s="1">
+        <f t="shared" si="625"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A661" s="2">
+        <v>44628</v>
+      </c>
+      <c r="B661" s="1">
+        <v>18473</v>
+      </c>
+      <c r="C661" s="1">
+        <f t="shared" si="619"/>
+        <v>-320</v>
+      </c>
+      <c r="D661" s="1">
+        <f t="shared" si="620"/>
+        <v>39</v>
+      </c>
+      <c r="E661" s="1">
+        <v>2</v>
+      </c>
+      <c r="F661" s="1">
+        <v>0</v>
+      </c>
+      <c r="G661" s="1">
+        <v>359</v>
+      </c>
+      <c r="H661" s="1">
+        <v>18434</v>
+      </c>
+      <c r="I661" s="4">
+        <f t="shared" si="621"/>
+        <v>39</v>
+      </c>
+      <c r="J661" s="4">
+        <f t="shared" si="622"/>
+        <v>29</v>
+      </c>
+      <c r="K661" s="4">
+        <f t="shared" si="623"/>
+        <v>0</v>
+      </c>
+      <c r="L661" s="4">
+        <f t="shared" si="624"/>
+        <v>0</v>
+      </c>
+      <c r="M661" s="1">
+        <f t="shared" si="625"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A662" s="2">
+        <v>44629</v>
+      </c>
+      <c r="B662" s="1">
+        <v>18528</v>
+      </c>
+      <c r="C662" s="1">
+        <f t="shared" ref="C662:C663" si="626">B662-H662-G662</f>
+        <v>-319</v>
+      </c>
+      <c r="D662" s="1">
+        <f t="shared" ref="D662:D663" si="627">B662-H662</f>
+        <v>40</v>
+      </c>
+      <c r="E662" s="1">
+        <v>2</v>
+      </c>
+      <c r="F662" s="1">
+        <v>0</v>
+      </c>
+      <c r="G662" s="1">
+        <v>359</v>
+      </c>
+      <c r="H662" s="1">
+        <v>18488</v>
+      </c>
+      <c r="I662" s="4">
+        <f t="shared" ref="I662:I663" si="628">B662-B661</f>
+        <v>55</v>
+      </c>
+      <c r="J662" s="4">
+        <f t="shared" ref="J662:J663" si="629">H662-H661</f>
+        <v>54</v>
+      </c>
+      <c r="K662" s="4">
+        <f t="shared" ref="K662:K663" si="630">G662-G661</f>
+        <v>0</v>
+      </c>
+      <c r="L662" s="4">
+        <f t="shared" ref="L662:L663" si="631">E662-E661</f>
+        <v>0</v>
+      </c>
+      <c r="M662" s="1">
+        <f t="shared" ref="M662:M663" si="632">F662-F661</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A663" s="2">
+        <v>44630</v>
+      </c>
+      <c r="B663" s="1">
+        <v>18656</v>
+      </c>
+      <c r="C663" s="1">
+        <f t="shared" si="626"/>
+        <v>-318</v>
+      </c>
+      <c r="D663" s="1">
+        <f t="shared" si="627"/>
+        <v>41</v>
+      </c>
+      <c r="E663" s="1">
+        <v>2</v>
+      </c>
+      <c r="F663" s="1">
+        <v>0</v>
+      </c>
+      <c r="G663" s="1">
+        <v>359</v>
+      </c>
+      <c r="H663" s="1">
+        <v>18615</v>
+      </c>
+      <c r="I663" s="4">
+        <f t="shared" si="628"/>
+        <v>128</v>
+      </c>
+      <c r="J663" s="4">
+        <f t="shared" si="629"/>
+        <v>127</v>
+      </c>
+      <c r="K663" s="4">
+        <f t="shared" si="630"/>
+        <v>0</v>
+      </c>
+      <c r="L663" s="4">
+        <f t="shared" si="631"/>
+        <v>0</v>
+      </c>
+      <c r="M663" s="1">
+        <f t="shared" si="632"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A664" s="2">
+        <v>44631</v>
+      </c>
+      <c r="B664" s="1">
+        <v>18714</v>
+      </c>
+      <c r="C664" s="1">
+        <f t="shared" ref="C664:C668" si="633">B664-H664-G664</f>
+        <v>-317</v>
+      </c>
+      <c r="D664" s="1">
+        <f t="shared" ref="D664:D668" si="634">B664-H664</f>
+        <v>42</v>
+      </c>
+      <c r="E664" s="1">
+        <v>2</v>
+      </c>
+      <c r="F664" s="1">
+        <v>0</v>
+      </c>
+      <c r="G664" s="1">
+        <v>359</v>
+      </c>
+      <c r="H664" s="1">
+        <v>18672</v>
+      </c>
+      <c r="I664" s="4">
+        <f t="shared" ref="I664:I668" si="635">B664-B663</f>
+        <v>58</v>
+      </c>
+      <c r="J664" s="4">
+        <f t="shared" ref="J664:J668" si="636">H664-H663</f>
+        <v>57</v>
+      </c>
+      <c r="K664" s="4">
+        <f t="shared" ref="K664:K668" si="637">G664-G663</f>
+        <v>0</v>
+      </c>
+      <c r="L664" s="4">
+        <f t="shared" ref="L664:L668" si="638">E664-E663</f>
+        <v>0</v>
+      </c>
+      <c r="M664" s="1">
+        <f t="shared" ref="M664:M668" si="639">F664-F663</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A665" s="2">
+        <v>44632</v>
+      </c>
+      <c r="B665" s="1">
+        <v>18714</v>
+      </c>
+      <c r="C665" s="1">
+        <f t="shared" si="633"/>
+        <v>-317</v>
+      </c>
+      <c r="D665" s="1">
+        <f t="shared" si="634"/>
+        <v>42</v>
+      </c>
+      <c r="E665" s="1">
+        <v>2</v>
+      </c>
+      <c r="F665" s="1">
+        <v>0</v>
+      </c>
+      <c r="G665" s="1">
+        <v>359</v>
+      </c>
+      <c r="H665" s="1">
+        <v>18672</v>
+      </c>
+      <c r="I665" s="4">
+        <f t="shared" si="635"/>
+        <v>0</v>
+      </c>
+      <c r="J665" s="4">
+        <f t="shared" si="636"/>
+        <v>0</v>
+      </c>
+      <c r="K665" s="4">
+        <f t="shared" si="637"/>
+        <v>0</v>
+      </c>
+      <c r="L665" s="4">
+        <f t="shared" si="638"/>
+        <v>0</v>
+      </c>
+      <c r="M665" s="1">
+        <f t="shared" si="639"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A666" s="2">
+        <v>44633</v>
+      </c>
+      <c r="B666" s="1">
+        <v>18714</v>
+      </c>
+      <c r="C666" s="1">
+        <f t="shared" si="633"/>
+        <v>-317</v>
+      </c>
+      <c r="D666" s="1">
+        <f t="shared" si="634"/>
+        <v>42</v>
+      </c>
+      <c r="E666" s="1">
+        <v>2</v>
+      </c>
+      <c r="F666" s="1">
+        <v>0</v>
+      </c>
+      <c r="G666" s="1">
+        <v>359</v>
+      </c>
+      <c r="H666" s="1">
+        <v>18672</v>
+      </c>
+      <c r="I666" s="4">
+        <f t="shared" si="635"/>
+        <v>0</v>
+      </c>
+      <c r="J666" s="4">
+        <f t="shared" si="636"/>
+        <v>0</v>
+      </c>
+      <c r="K666" s="4">
+        <f t="shared" si="637"/>
+        <v>0</v>
+      </c>
+      <c r="L666" s="4">
+        <f t="shared" si="638"/>
+        <v>0</v>
+      </c>
+      <c r="M666" s="1">
+        <f t="shared" si="639"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A667" s="2">
+        <v>44634</v>
+      </c>
+      <c r="B667" s="1">
+        <v>18752</v>
+      </c>
+      <c r="C667" s="1">
+        <f t="shared" si="633"/>
+        <v>-325</v>
+      </c>
+      <c r="D667" s="1">
+        <f t="shared" si="634"/>
+        <v>34</v>
+      </c>
+      <c r="E667" s="1">
+        <v>3</v>
+      </c>
+      <c r="F667" s="1">
+        <v>0</v>
+      </c>
+      <c r="G667" s="1">
+        <v>359</v>
+      </c>
+      <c r="H667" s="1">
+        <v>18718</v>
+      </c>
+      <c r="I667" s="4">
+        <f t="shared" si="635"/>
+        <v>38</v>
+      </c>
+      <c r="J667" s="4">
+        <f t="shared" si="636"/>
+        <v>46</v>
+      </c>
+      <c r="K667" s="4">
+        <f t="shared" si="637"/>
+        <v>0</v>
+      </c>
+      <c r="L667" s="4">
+        <f t="shared" si="638"/>
+        <v>1</v>
+      </c>
+      <c r="M667" s="1">
+        <f t="shared" si="639"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A668" s="2">
+        <v>44635</v>
+      </c>
+      <c r="B668" s="1">
+        <v>18805</v>
+      </c>
+      <c r="C668" s="1">
+        <f t="shared" si="633"/>
+        <v>-330</v>
+      </c>
+      <c r="D668" s="1">
+        <f t="shared" si="634"/>
+        <v>29</v>
+      </c>
+      <c r="E668" s="1">
+        <v>3</v>
+      </c>
+      <c r="F668" s="1">
+        <v>0</v>
+      </c>
+      <c r="G668" s="1">
+        <v>359</v>
+      </c>
+      <c r="H668" s="1">
+        <v>18776</v>
+      </c>
+      <c r="I668" s="4">
+        <f t="shared" si="635"/>
+        <v>53</v>
+      </c>
+      <c r="J668" s="4">
+        <f t="shared" si="636"/>
+        <v>58</v>
+      </c>
+      <c r="K668" s="4">
+        <f t="shared" si="637"/>
+        <v>0</v>
+      </c>
+      <c r="L668" s="4">
+        <f t="shared" si="638"/>
+        <v>0</v>
+      </c>
+      <c r="M668" s="1">
+        <f t="shared" si="639"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30706,11 +32578,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R208"/>
+  <dimension ref="A1:R247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G207" sqref="G207:G208"/>
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G247" sqref="G243:G247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37386,6 +39258,1254 @@
         <v>346</v>
       </c>
     </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B209" s="1">
+        <v>4584</v>
+      </c>
+      <c r="C209" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D209" s="1">
+        <v>9</v>
+      </c>
+      <c r="E209" s="1">
+        <v>16280</v>
+      </c>
+      <c r="F209" s="1">
+        <v>27724</v>
+      </c>
+      <c r="G209" s="1">
+        <v>15239</v>
+      </c>
+      <c r="H209" s="1">
+        <v>8</v>
+      </c>
+      <c r="I209" s="1">
+        <v>0</v>
+      </c>
+      <c r="J209" s="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B210" s="1">
+        <v>4584</v>
+      </c>
+      <c r="C210" s="1">
+        <v>44013</v>
+      </c>
+      <c r="D210" s="1">
+        <v>9</v>
+      </c>
+      <c r="E210" s="1">
+        <v>16280</v>
+      </c>
+      <c r="F210" s="1">
+        <v>27724</v>
+      </c>
+      <c r="G210" s="1">
+        <v>15239</v>
+      </c>
+      <c r="H210" s="1">
+        <v>8</v>
+      </c>
+      <c r="I210" s="1">
+        <v>0</v>
+      </c>
+      <c r="J210" s="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B211" s="1">
+        <v>3798</v>
+      </c>
+      <c r="C211" s="1">
+        <v>44128</v>
+      </c>
+      <c r="D211" s="1">
+        <v>11</v>
+      </c>
+      <c r="E211" s="1">
+        <v>16360</v>
+      </c>
+      <c r="F211" s="1">
+        <v>27757</v>
+      </c>
+      <c r="G211" s="1">
+        <v>15280</v>
+      </c>
+      <c r="H211" s="1">
+        <v>7</v>
+      </c>
+      <c r="I211" s="1">
+        <v>0</v>
+      </c>
+      <c r="J211" s="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B212" s="1">
+        <v>2886</v>
+      </c>
+      <c r="C212" s="1">
+        <v>44546</v>
+      </c>
+      <c r="D212" s="1">
+        <v>11</v>
+      </c>
+      <c r="E212" s="1">
+        <v>16523</v>
+      </c>
+      <c r="F212" s="1">
+        <v>28012</v>
+      </c>
+      <c r="G212" s="1">
+        <v>15514</v>
+      </c>
+      <c r="H212" s="1">
+        <v>6</v>
+      </c>
+      <c r="I212" s="1">
+        <v>0</v>
+      </c>
+      <c r="J212" s="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B213" s="1">
+        <v>2412</v>
+      </c>
+      <c r="C213" s="1">
+        <v>44834</v>
+      </c>
+      <c r="D213" s="1">
+        <v>10</v>
+      </c>
+      <c r="E213" s="1">
+        <v>16684</v>
+      </c>
+      <c r="F213" s="1">
+        <v>28140</v>
+      </c>
+      <c r="G213" s="1">
+        <v>15911</v>
+      </c>
+      <c r="H213" s="1">
+        <v>6</v>
+      </c>
+      <c r="I213" s="1">
+        <v>0</v>
+      </c>
+      <c r="J213" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B214" s="1">
+        <v>1832</v>
+      </c>
+      <c r="C214" s="1">
+        <v>45066</v>
+      </c>
+      <c r="D214" s="1">
+        <v>8</v>
+      </c>
+      <c r="E214" s="1">
+        <v>16770</v>
+      </c>
+      <c r="F214" s="1">
+        <v>28288</v>
+      </c>
+      <c r="G214" s="1">
+        <v>16223</v>
+      </c>
+      <c r="H214" s="1">
+        <v>7</v>
+      </c>
+      <c r="I214" s="1">
+        <v>0</v>
+      </c>
+      <c r="J214" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B215" s="1">
+        <v>1458</v>
+      </c>
+      <c r="C215" s="1">
+        <v>45297</v>
+      </c>
+      <c r="D215" s="1">
+        <v>2</v>
+      </c>
+      <c r="E215" s="1">
+        <v>16894</v>
+      </c>
+      <c r="F215" s="1">
+        <v>28401</v>
+      </c>
+      <c r="G215" s="1">
+        <v>16402</v>
+      </c>
+      <c r="H215" s="1">
+        <v>6</v>
+      </c>
+      <c r="I215" s="1">
+        <v>0</v>
+      </c>
+      <c r="J215" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B216" s="1">
+        <v>1458</v>
+      </c>
+      <c r="C216" s="1">
+        <v>45297</v>
+      </c>
+      <c r="D216" s="1">
+        <v>2</v>
+      </c>
+      <c r="E216" s="1">
+        <v>16894</v>
+      </c>
+      <c r="F216" s="1">
+        <v>28401</v>
+      </c>
+      <c r="G216" s="1">
+        <v>16402</v>
+      </c>
+      <c r="H216" s="1">
+        <v>5</v>
+      </c>
+      <c r="I216" s="1">
+        <v>0</v>
+      </c>
+      <c r="J216" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B217" s="1">
+        <v>1458</v>
+      </c>
+      <c r="C217" s="1">
+        <v>45297</v>
+      </c>
+      <c r="D217" s="1">
+        <v>2</v>
+      </c>
+      <c r="E217" s="1">
+        <v>16894</v>
+      </c>
+      <c r="F217" s="1">
+        <v>28401</v>
+      </c>
+      <c r="G217" s="1">
+        <v>16402</v>
+      </c>
+      <c r="H217" s="1">
+        <v>5</v>
+      </c>
+      <c r="I217" s="1">
+        <v>0</v>
+      </c>
+      <c r="J217" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B218" s="1">
+        <v>1297</v>
+      </c>
+      <c r="C218" s="1">
+        <v>45496</v>
+      </c>
+      <c r="D218" s="1">
+        <v>2</v>
+      </c>
+      <c r="E218" s="1">
+        <v>16959</v>
+      </c>
+      <c r="F218" s="1">
+        <v>28535</v>
+      </c>
+      <c r="G218" s="1">
+        <v>16865</v>
+      </c>
+      <c r="H218" s="1">
+        <v>5</v>
+      </c>
+      <c r="I218" s="1">
+        <v>0</v>
+      </c>
+      <c r="J218" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B219" s="1">
+        <v>658</v>
+      </c>
+      <c r="C219" s="1">
+        <v>45823</v>
+      </c>
+      <c r="D219" s="1">
+        <v>2</v>
+      </c>
+      <c r="E219" s="1">
+        <v>17107</v>
+      </c>
+      <c r="F219" s="1">
+        <v>28714</v>
+      </c>
+      <c r="G219" s="1">
+        <v>16943</v>
+      </c>
+      <c r="H219" s="1">
+        <v>6</v>
+      </c>
+      <c r="I219" s="1">
+        <v>0</v>
+      </c>
+      <c r="J219" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B220" s="1">
+        <v>648</v>
+      </c>
+      <c r="C220" s="1">
+        <v>45978</v>
+      </c>
+      <c r="D220" s="1">
+        <v>6</v>
+      </c>
+      <c r="E220" s="1">
+        <v>17199</v>
+      </c>
+      <c r="F220" s="1">
+        <v>28773</v>
+      </c>
+      <c r="G220" s="1">
+        <v>17002</v>
+      </c>
+      <c r="H220" s="1">
+        <v>6</v>
+      </c>
+      <c r="I220" s="1">
+        <v>0</v>
+      </c>
+      <c r="J220" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B221" s="1">
+        <v>654</v>
+      </c>
+      <c r="C221" s="1">
+        <v>46085</v>
+      </c>
+      <c r="D221" s="1">
+        <v>5</v>
+      </c>
+      <c r="E221" s="1">
+        <v>17276</v>
+      </c>
+      <c r="F221" s="1">
+        <v>28804</v>
+      </c>
+      <c r="G221" s="1">
+        <v>17080</v>
+      </c>
+      <c r="H221" s="1">
+        <v>6</v>
+      </c>
+      <c r="I221" s="1">
+        <v>0</v>
+      </c>
+      <c r="J221" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>44610</v>
+      </c>
+      <c r="B222" s="1">
+        <v>650</v>
+      </c>
+      <c r="C222" s="1">
+        <v>46291</v>
+      </c>
+      <c r="D222" s="1">
+        <v>5</v>
+      </c>
+      <c r="E222" s="1">
+        <v>17378</v>
+      </c>
+      <c r="F222" s="1">
+        <v>28908</v>
+      </c>
+      <c r="G222" s="1">
+        <v>17165</v>
+      </c>
+      <c r="H222" s="1">
+        <v>4</v>
+      </c>
+      <c r="I222" s="1">
+        <v>0</v>
+      </c>
+      <c r="J222" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>44611</v>
+      </c>
+      <c r="B223" s="1">
+        <v>650</v>
+      </c>
+      <c r="C223" s="1">
+        <v>46291</v>
+      </c>
+      <c r="D223" s="1">
+        <v>5</v>
+      </c>
+      <c r="E223" s="1">
+        <v>17378</v>
+      </c>
+      <c r="F223" s="1">
+        <v>28908</v>
+      </c>
+      <c r="G223" s="1">
+        <v>17165</v>
+      </c>
+      <c r="H223" s="1">
+        <v>5</v>
+      </c>
+      <c r="I223" s="1">
+        <v>0</v>
+      </c>
+      <c r="J223" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>44612</v>
+      </c>
+      <c r="B224" s="1">
+        <v>650</v>
+      </c>
+      <c r="C224" s="1">
+        <v>46291</v>
+      </c>
+      <c r="D224" s="1">
+        <v>5</v>
+      </c>
+      <c r="E224" s="1">
+        <v>17378</v>
+      </c>
+      <c r="F224" s="1">
+        <v>28908</v>
+      </c>
+      <c r="G224" s="1">
+        <v>17165</v>
+      </c>
+      <c r="H224" s="1">
+        <v>5</v>
+      </c>
+      <c r="I224" s="1">
+        <v>0</v>
+      </c>
+      <c r="J224" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>44613</v>
+      </c>
+      <c r="B225" s="1">
+        <v>723</v>
+      </c>
+      <c r="C225" s="1">
+        <v>46398</v>
+      </c>
+      <c r="D225" s="1">
+        <v>3</v>
+      </c>
+      <c r="E225" s="1">
+        <v>17468</v>
+      </c>
+      <c r="F225" s="1">
+        <v>28927</v>
+      </c>
+      <c r="G225" s="1">
+        <v>17366</v>
+      </c>
+      <c r="H225" s="1">
+        <v>6</v>
+      </c>
+      <c r="I225" s="1">
+        <v>0</v>
+      </c>
+      <c r="J225" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B226" s="1">
+        <v>672</v>
+      </c>
+      <c r="C226" s="1">
+        <v>46612</v>
+      </c>
+      <c r="D226" s="1">
+        <v>1</v>
+      </c>
+      <c r="E226" s="1">
+        <v>17572</v>
+      </c>
+      <c r="F226" s="1">
+        <v>29039</v>
+      </c>
+      <c r="G226" s="1">
+        <v>17532</v>
+      </c>
+      <c r="H226" s="1">
+        <v>3</v>
+      </c>
+      <c r="I226" s="1">
+        <v>0</v>
+      </c>
+      <c r="J226" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>44615</v>
+      </c>
+      <c r="B227" s="1">
+        <v>625</v>
+      </c>
+      <c r="C227" s="1">
+        <v>46819</v>
+      </c>
+      <c r="D227" s="1">
+        <v>4</v>
+      </c>
+      <c r="E227" s="1">
+        <v>17715</v>
+      </c>
+      <c r="F227" s="1">
+        <v>29100</v>
+      </c>
+      <c r="G227" s="1">
+        <v>17667</v>
+      </c>
+      <c r="H227" s="1">
+        <v>4</v>
+      </c>
+      <c r="I227" s="1">
+        <v>0</v>
+      </c>
+      <c r="J227" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>44616</v>
+      </c>
+      <c r="B228" s="1">
+        <v>636</v>
+      </c>
+      <c r="C228" s="1">
+        <v>47008</v>
+      </c>
+      <c r="D228" s="1">
+        <v>7</v>
+      </c>
+      <c r="E228" s="1">
+        <v>17831</v>
+      </c>
+      <c r="F228" s="1">
+        <v>29170</v>
+      </c>
+      <c r="G228" s="1">
+        <v>17775</v>
+      </c>
+      <c r="H228" s="1">
+        <v>5</v>
+      </c>
+      <c r="I228" s="1">
+        <v>0</v>
+      </c>
+      <c r="J228" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B229" s="1">
+        <v>420</v>
+      </c>
+      <c r="C229" s="1">
+        <v>47086</v>
+      </c>
+      <c r="D229" s="1">
+        <v>3</v>
+      </c>
+      <c r="E229" s="1">
+        <v>17900</v>
+      </c>
+      <c r="F229" s="1">
+        <v>29183</v>
+      </c>
+      <c r="G229" s="1">
+        <v>17870</v>
+      </c>
+      <c r="H229" s="1">
+        <v>5</v>
+      </c>
+      <c r="I229" s="1">
+        <v>0</v>
+      </c>
+      <c r="J229" s="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>44618</v>
+      </c>
+      <c r="B230" s="1">
+        <v>420</v>
+      </c>
+      <c r="C230" s="1">
+        <v>47086</v>
+      </c>
+      <c r="D230" s="1">
+        <v>3</v>
+      </c>
+      <c r="E230" s="1">
+        <v>17900</v>
+      </c>
+      <c r="F230" s="1">
+        <v>29183</v>
+      </c>
+      <c r="G230" s="1">
+        <v>17870</v>
+      </c>
+      <c r="H230" s="1">
+        <v>5</v>
+      </c>
+      <c r="I230" s="1">
+        <v>0</v>
+      </c>
+      <c r="J230" s="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>44619</v>
+      </c>
+      <c r="B231" s="1">
+        <v>420</v>
+      </c>
+      <c r="C231" s="1">
+        <v>47086</v>
+      </c>
+      <c r="D231" s="1">
+        <v>0</v>
+      </c>
+      <c r="E231" s="1">
+        <v>17900</v>
+      </c>
+      <c r="F231" s="1">
+        <v>29183</v>
+      </c>
+      <c r="G231" s="1">
+        <v>17870</v>
+      </c>
+      <c r="H231" s="1">
+        <v>4</v>
+      </c>
+      <c r="I231" s="1">
+        <v>0</v>
+      </c>
+      <c r="J231" s="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>44620</v>
+      </c>
+      <c r="B232" s="1">
+        <v>420</v>
+      </c>
+      <c r="C232" s="1">
+        <v>47086</v>
+      </c>
+      <c r="D232" s="1">
+        <v>0</v>
+      </c>
+      <c r="E232" s="1">
+        <v>17900</v>
+      </c>
+      <c r="F232" s="1">
+        <v>29183</v>
+      </c>
+      <c r="G232" s="1">
+        <v>17870</v>
+      </c>
+      <c r="H232" s="1">
+        <v>4</v>
+      </c>
+      <c r="I232" s="1">
+        <v>0</v>
+      </c>
+      <c r="J232" s="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>44621</v>
+      </c>
+      <c r="B233" s="1">
+        <v>420</v>
+      </c>
+      <c r="C233" s="1">
+        <v>47086</v>
+      </c>
+      <c r="D233" s="1">
+        <v>0</v>
+      </c>
+      <c r="E233" s="1">
+        <v>17900</v>
+      </c>
+      <c r="F233" s="1">
+        <v>29183</v>
+      </c>
+      <c r="G233" s="1">
+        <v>17870</v>
+      </c>
+      <c r="H233" s="1">
+        <v>3</v>
+      </c>
+      <c r="I233" s="1">
+        <v>0</v>
+      </c>
+      <c r="J233" s="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>44622</v>
+      </c>
+      <c r="B234" s="1">
+        <v>400</v>
+      </c>
+      <c r="C234" s="1">
+        <v>47148</v>
+      </c>
+      <c r="D234" s="1">
+        <v>1</v>
+      </c>
+      <c r="E234" s="1">
+        <v>18104</v>
+      </c>
+      <c r="F234" s="1">
+        <v>29183</v>
+      </c>
+      <c r="G234" s="1">
+        <v>18089</v>
+      </c>
+      <c r="H234" s="1">
+        <v>3</v>
+      </c>
+      <c r="I234" s="1">
+        <v>0</v>
+      </c>
+      <c r="J234" s="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>44623</v>
+      </c>
+      <c r="B235" s="1">
+        <v>150</v>
+      </c>
+      <c r="C235" s="1">
+        <v>47440</v>
+      </c>
+      <c r="D235" s="1">
+        <v>1</v>
+      </c>
+      <c r="E235" s="1">
+        <v>18291</v>
+      </c>
+      <c r="F235" s="1">
+        <v>29183</v>
+      </c>
+      <c r="G235" s="1">
+        <v>18255</v>
+      </c>
+      <c r="H235" s="1">
+        <v>2</v>
+      </c>
+      <c r="I235" s="1">
+        <v>0</v>
+      </c>
+      <c r="J235" s="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>44624</v>
+      </c>
+      <c r="B236" s="1">
+        <v>183</v>
+      </c>
+      <c r="C236" s="1">
+        <v>47572</v>
+      </c>
+      <c r="D236" s="1">
+        <v>3</v>
+      </c>
+      <c r="E236" s="1">
+        <v>18375</v>
+      </c>
+      <c r="F236" s="1">
+        <v>29194</v>
+      </c>
+      <c r="G236" s="1">
+        <v>18338</v>
+      </c>
+      <c r="H236" s="1">
+        <v>2</v>
+      </c>
+      <c r="I236" s="1">
+        <v>0</v>
+      </c>
+      <c r="J236" s="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>44625</v>
+      </c>
+      <c r="B237" s="1">
+        <v>183</v>
+      </c>
+      <c r="C237" s="1">
+        <v>47572</v>
+      </c>
+      <c r="D237" s="1">
+        <v>3</v>
+      </c>
+      <c r="E237" s="1">
+        <v>18375</v>
+      </c>
+      <c r="F237" s="1">
+        <v>29194</v>
+      </c>
+      <c r="G237" s="1">
+        <v>18338</v>
+      </c>
+      <c r="H237" s="1">
+        <v>2</v>
+      </c>
+      <c r="I237" s="1">
+        <v>0</v>
+      </c>
+      <c r="J237" s="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>44626</v>
+      </c>
+      <c r="B238" s="1">
+        <v>183</v>
+      </c>
+      <c r="C238" s="1">
+        <v>47572</v>
+      </c>
+      <c r="D238" s="1">
+        <v>3</v>
+      </c>
+      <c r="E238" s="1">
+        <v>18375</v>
+      </c>
+      <c r="F238" s="1">
+        <v>29194</v>
+      </c>
+      <c r="G238" s="1">
+        <v>18338</v>
+      </c>
+      <c r="H238" s="1">
+        <v>1</v>
+      </c>
+      <c r="I238" s="1">
+        <v>0</v>
+      </c>
+      <c r="J238" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>44627</v>
+      </c>
+      <c r="B239" s="1">
+        <v>223</v>
+      </c>
+      <c r="C239" s="1">
+        <v>47661</v>
+      </c>
+      <c r="D239" s="1">
+        <v>2</v>
+      </c>
+      <c r="E239" s="1">
+        <v>18434</v>
+      </c>
+      <c r="F239" s="1">
+        <v>29225</v>
+      </c>
+      <c r="G239" s="1">
+        <v>18405</v>
+      </c>
+      <c r="H239" s="1">
+        <v>2</v>
+      </c>
+      <c r="I239" s="1">
+        <v>0</v>
+      </c>
+      <c r="J239" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>44628</v>
+      </c>
+      <c r="B240" s="1">
+        <v>188</v>
+      </c>
+      <c r="C240" s="1">
+        <v>47818</v>
+      </c>
+      <c r="D240" s="1">
+        <v>0</v>
+      </c>
+      <c r="E240" s="1">
+        <v>18473</v>
+      </c>
+      <c r="F240" s="1">
+        <v>29345</v>
+      </c>
+      <c r="G240" s="1">
+        <v>18434</v>
+      </c>
+      <c r="H240" s="1">
+        <v>2</v>
+      </c>
+      <c r="I240" s="1">
+        <v>0</v>
+      </c>
+      <c r="J240" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>44629</v>
+      </c>
+      <c r="B241" s="1">
+        <v>207</v>
+      </c>
+      <c r="C241" s="1">
+        <v>47905</v>
+      </c>
+      <c r="D241" s="1">
+        <v>1</v>
+      </c>
+      <c r="E241" s="1">
+        <v>18528</v>
+      </c>
+      <c r="F241" s="1">
+        <v>29376</v>
+      </c>
+      <c r="G241" s="1">
+        <v>18488</v>
+      </c>
+      <c r="H241" s="1">
+        <v>2</v>
+      </c>
+      <c r="I241" s="1">
+        <v>0</v>
+      </c>
+      <c r="J241" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>44630</v>
+      </c>
+      <c r="B242" s="1">
+        <v>234</v>
+      </c>
+      <c r="C242" s="1">
+        <v>47995</v>
+      </c>
+      <c r="D242" s="1">
+        <v>1</v>
+      </c>
+      <c r="E242" s="1">
+        <v>18656</v>
+      </c>
+      <c r="F242" s="1">
+        <v>29376</v>
+      </c>
+      <c r="G242" s="1">
+        <v>18615</v>
+      </c>
+      <c r="H242" s="1">
+        <v>2</v>
+      </c>
+      <c r="I242" s="1">
+        <v>0</v>
+      </c>
+      <c r="J242" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>44631</v>
+      </c>
+      <c r="B243" s="1">
+        <v>271</v>
+      </c>
+      <c r="C243" s="1">
+        <v>48096</v>
+      </c>
+      <c r="D243" s="1">
+        <v>8</v>
+      </c>
+      <c r="E243" s="1">
+        <v>18714</v>
+      </c>
+      <c r="F243" s="1">
+        <v>29376</v>
+      </c>
+      <c r="G243" s="1">
+        <v>18672</v>
+      </c>
+      <c r="H243" s="1">
+        <v>2</v>
+      </c>
+      <c r="I243" s="1">
+        <v>0</v>
+      </c>
+      <c r="J243" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>44632</v>
+      </c>
+      <c r="B244" s="1">
+        <v>271</v>
+      </c>
+      <c r="C244" s="1">
+        <v>48096</v>
+      </c>
+      <c r="D244" s="1">
+        <v>8</v>
+      </c>
+      <c r="E244" s="1">
+        <v>18714</v>
+      </c>
+      <c r="F244" s="1">
+        <v>29376</v>
+      </c>
+      <c r="G244" s="1">
+        <v>18672</v>
+      </c>
+      <c r="H244" s="1">
+        <v>2</v>
+      </c>
+      <c r="I244" s="1">
+        <v>0</v>
+      </c>
+      <c r="J244" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>44633</v>
+      </c>
+      <c r="B245" s="1">
+        <v>271</v>
+      </c>
+      <c r="C245" s="1">
+        <v>48096</v>
+      </c>
+      <c r="D245" s="1">
+        <v>8</v>
+      </c>
+      <c r="E245" s="1">
+        <v>18714</v>
+      </c>
+      <c r="F245" s="1">
+        <v>29376</v>
+      </c>
+      <c r="G245" s="1">
+        <v>18672</v>
+      </c>
+      <c r="H245" s="1">
+        <v>2</v>
+      </c>
+      <c r="I245" s="1">
+        <v>0</v>
+      </c>
+      <c r="J245" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>44634</v>
+      </c>
+      <c r="B246" s="1">
+        <v>261</v>
+      </c>
+      <c r="C246" s="1">
+        <v>48195</v>
+      </c>
+      <c r="D246" s="1">
+        <v>0</v>
+      </c>
+      <c r="E246" s="1">
+        <v>18752</v>
+      </c>
+      <c r="F246" s="1">
+        <v>29443</v>
+      </c>
+      <c r="G246" s="1">
+        <v>18718</v>
+      </c>
+      <c r="H246" s="1">
+        <v>3</v>
+      </c>
+      <c r="I246" s="1">
+        <v>0</v>
+      </c>
+      <c r="J246" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>44635</v>
+      </c>
+      <c r="B247" s="1">
+        <v>291</v>
+      </c>
+      <c r="C247" s="1">
+        <v>48384</v>
+      </c>
+      <c r="D247" s="1">
+        <v>0</v>
+      </c>
+      <c r="E247" s="1">
+        <v>18805</v>
+      </c>
+      <c r="F247" s="1">
+        <v>29579</v>
+      </c>
+      <c r="G247" s="1">
+        <v>18776</v>
+      </c>
+      <c r="H247" s="1">
+        <v>3</v>
+      </c>
+      <c r="I247" s="1">
+        <v>0</v>
+      </c>
+      <c r="J247" s="1">
+        <v>359</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
